--- a/data/pca/factorExposure/factorExposure_2011-06-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-06-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -704,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,39 +747,63 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.02326481413496973</v>
+        <v>0.01805131936162001</v>
       </c>
       <c r="C2">
-        <v>0.002234245699987732</v>
+        <v>-0.001119185389668713</v>
       </c>
       <c r="D2">
-        <v>0.05347593028999285</v>
+        <v>-0.004749430683716852</v>
       </c>
       <c r="E2">
-        <v>0.02547943729898081</v>
+        <v>-0.03959058712402332</v>
       </c>
       <c r="F2">
-        <v>-0.03964037191255097</v>
+        <v>0.002040694031800291</v>
       </c>
       <c r="G2">
-        <v>0.02504898506636903</v>
+        <v>-0.02577561510379825</v>
       </c>
       <c r="H2">
-        <v>-0.01919580169398751</v>
+        <v>-0.01260549999111661</v>
       </c>
       <c r="I2">
-        <v>0.02627572311885186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>-0.03839024939708169</v>
+      </c>
+      <c r="J2">
+        <v>-0.03698984488409206</v>
+      </c>
+      <c r="K2">
+        <v>-0.02775704993476292</v>
+      </c>
+      <c r="L2">
+        <v>0.05587297036360834</v>
+      </c>
+      <c r="M2">
+        <v>-0.03107269347351257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -793,39 +829,63 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.07079074328232643</v>
+        <v>0.1047511432200506</v>
       </c>
       <c r="C4">
-        <v>-0.06150069181309347</v>
+        <v>0.07863533176235794</v>
       </c>
       <c r="D4">
-        <v>0.03435784020185474</v>
+        <v>-0.02672603170268834</v>
       </c>
       <c r="E4">
-        <v>0.03971314218802995</v>
+        <v>-0.04300207714246083</v>
       </c>
       <c r="F4">
-        <v>0.01223572948256336</v>
+        <v>0.1106793096200715</v>
       </c>
       <c r="G4">
-        <v>0.02464432221259122</v>
+        <v>0.01004250078544946</v>
       </c>
       <c r="H4">
-        <v>0.006922376070594768</v>
+        <v>0.06312440034492157</v>
       </c>
       <c r="I4">
-        <v>0.007365397793879356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.03827266883759569</v>
+      </c>
+      <c r="J4">
+        <v>-0.04857753670367618</v>
+      </c>
+      <c r="K4">
+        <v>0.0500459069825849</v>
+      </c>
+      <c r="L4">
+        <v>-0.07124722977482077</v>
+      </c>
+      <c r="M4">
+        <v>-0.03190083668545689</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -851,329 +911,473 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1300188841722078</v>
+        <v>0.1298681961093471</v>
       </c>
       <c r="C6">
-        <v>-0.02743356295654374</v>
+        <v>0.05456623821952541</v>
       </c>
       <c r="D6">
-        <v>0.06725564278920378</v>
+        <v>-0.007852862591492508</v>
       </c>
       <c r="E6">
-        <v>0.1081928109343304</v>
+        <v>-0.02982815592551879</v>
       </c>
       <c r="F6">
-        <v>0.06244495855565331</v>
+        <v>0.05590655881570666</v>
       </c>
       <c r="G6">
-        <v>-0.07629030536517535</v>
+        <v>0.1611059786044433</v>
       </c>
       <c r="H6">
-        <v>0.2310948166502754</v>
+        <v>-0.05144207957516702</v>
       </c>
       <c r="I6">
-        <v>-0.2078366608323115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.1145715156438406</v>
+      </c>
+      <c r="J6">
+        <v>-0.1239871472102808</v>
+      </c>
+      <c r="K6">
+        <v>0.4008834830070732</v>
+      </c>
+      <c r="L6">
+        <v>0.1180560170462976</v>
+      </c>
+      <c r="M6">
+        <v>0.003702718431311914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.06860299751717301</v>
+        <v>0.07122571218770739</v>
       </c>
       <c r="C7">
-        <v>-0.05299462527612882</v>
+        <v>0.07383421171593066</v>
       </c>
       <c r="D7">
-        <v>0.05480804478996643</v>
+        <v>-0.007766271320808314</v>
       </c>
       <c r="E7">
-        <v>0.03978632870249318</v>
+        <v>-0.04327483829921785</v>
       </c>
       <c r="F7">
-        <v>0.03346860266689748</v>
+        <v>0.01926766590269462</v>
       </c>
       <c r="G7">
-        <v>-0.01396715521567994</v>
+        <v>-0.006405377173512498</v>
       </c>
       <c r="H7">
-        <v>-0.002635437441569771</v>
+        <v>0.04694648554557762</v>
       </c>
       <c r="I7">
-        <v>0.05016857826543208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.03245061856502336</v>
+      </c>
+      <c r="J7">
+        <v>0.0115943011925949</v>
+      </c>
+      <c r="K7">
+        <v>-0.03549040627227604</v>
+      </c>
+      <c r="L7">
+        <v>-0.09663784300997551</v>
+      </c>
+      <c r="M7">
+        <v>-0.0005113804638737458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.02577517904383438</v>
+        <v>0.03704899685245426</v>
       </c>
       <c r="C8">
-        <v>-0.01551524726673263</v>
+        <v>0.01059962921547735</v>
       </c>
       <c r="D8">
-        <v>0.03537532129179267</v>
+        <v>-0.01964670074789663</v>
       </c>
       <c r="E8">
-        <v>0.0597543514284469</v>
+        <v>-0.04965756500249467</v>
       </c>
       <c r="F8">
-        <v>-0.05243458020201516</v>
+        <v>0.1035031481350337</v>
       </c>
       <c r="G8">
-        <v>-0.03076877368214306</v>
+        <v>0.008299103021465651</v>
       </c>
       <c r="H8">
-        <v>-0.01579442359596743</v>
+        <v>0.03595008727529953</v>
       </c>
       <c r="I8">
-        <v>0.0340716804530193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.01512938580841422</v>
+      </c>
+      <c r="J8">
+        <v>-0.06361919102834532</v>
+      </c>
+      <c r="K8">
+        <v>0.02414757645686784</v>
+      </c>
+      <c r="L8">
+        <v>-0.05323748065633722</v>
+      </c>
+      <c r="M8">
+        <v>-0.02016541821891079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.07332173904651919</v>
+        <v>0.08433551390495721</v>
       </c>
       <c r="C9">
-        <v>-0.07864788637233328</v>
+        <v>0.06839926127772514</v>
       </c>
       <c r="D9">
-        <v>0.03998041739579284</v>
+        <v>-0.005844467619929994</v>
       </c>
       <c r="E9">
-        <v>0.02940026519592052</v>
+        <v>-0.02929591647313465</v>
       </c>
       <c r="F9">
-        <v>-0.002109458956283604</v>
+        <v>0.104889977624256</v>
       </c>
       <c r="G9">
-        <v>0.02777878891641227</v>
+        <v>0.004098018652040922</v>
       </c>
       <c r="H9">
-        <v>-0.004073600566450467</v>
+        <v>0.05833783211687391</v>
       </c>
       <c r="I9">
-        <v>0.01075240409569657</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.04432565136291565</v>
+      </c>
+      <c r="J9">
+        <v>-0.0204849861064473</v>
+      </c>
+      <c r="K9">
+        <v>0.02124849775188181</v>
+      </c>
+      <c r="L9">
+        <v>-0.03838799361150626</v>
+      </c>
+      <c r="M9">
+        <v>-0.006667627934304426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.06329863430659699</v>
+        <v>0.1087857222163555</v>
       </c>
       <c r="C10">
-        <v>0.140603280021121</v>
+        <v>-0.1710422463927668</v>
       </c>
       <c r="D10">
-        <v>0.0561481685190822</v>
+        <v>-0.009850093144619652</v>
       </c>
       <c r="E10">
-        <v>0.04322317754866298</v>
+        <v>-0.05173734717551164</v>
       </c>
       <c r="F10">
-        <v>0.03293436038989267</v>
+        <v>-0.0145293386400401</v>
       </c>
       <c r="G10">
-        <v>-0.03139138654505333</v>
+        <v>0.01168842319067156</v>
       </c>
       <c r="H10">
-        <v>0.04708673298625834</v>
+        <v>-0.005459138439627875</v>
       </c>
       <c r="I10">
-        <v>0.005239015471605136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.02050510927373716</v>
+      </c>
+      <c r="J10">
+        <v>0.05912208683828398</v>
+      </c>
+      <c r="K10">
+        <v>-0.04718522942760944</v>
+      </c>
+      <c r="L10">
+        <v>-0.00146552857785964</v>
+      </c>
+      <c r="M10">
+        <v>0.04967300547539026</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.06704433206797741</v>
+        <v>0.06615252640235715</v>
       </c>
       <c r="C11">
-        <v>-0.08872072243533899</v>
+        <v>0.06970379077773338</v>
       </c>
       <c r="D11">
-        <v>0.04013054470622106</v>
+        <v>0.02906643762249376</v>
       </c>
       <c r="E11">
-        <v>0.00349963999311899</v>
+        <v>-0.01262242508280311</v>
       </c>
       <c r="F11">
-        <v>-0.05357585730968847</v>
+        <v>0.1036948711036795</v>
       </c>
       <c r="G11">
-        <v>0.01443006903120784</v>
+        <v>-0.01857615072782198</v>
       </c>
       <c r="H11">
-        <v>-0.04542568242195819</v>
+        <v>0.03487863961455569</v>
       </c>
       <c r="I11">
-        <v>0.0423838881611367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.03352020429647177</v>
+      </c>
+      <c r="J11">
+        <v>0.005173754454002874</v>
+      </c>
+      <c r="K11">
+        <v>-0.09764436440085342</v>
+      </c>
+      <c r="L11">
+        <v>0.0124585793136938</v>
+      </c>
+      <c r="M11">
+        <v>0.07405018581741983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.06167930912092317</v>
+        <v>0.07202679204813797</v>
       </c>
       <c r="C12">
-        <v>-0.05505841033886461</v>
+        <v>0.06292958470833972</v>
       </c>
       <c r="D12">
-        <v>0.01938520966026473</v>
+        <v>0.02923791459901122</v>
       </c>
       <c r="E12">
-        <v>0.02057584016182603</v>
+        <v>-0.001975334596627792</v>
       </c>
       <c r="F12">
-        <v>-0.0006817812690001358</v>
+        <v>0.1190299550471258</v>
       </c>
       <c r="G12">
-        <v>0.001512099550357216</v>
+        <v>-0.02149053402361345</v>
       </c>
       <c r="H12">
-        <v>-0.033652292702413</v>
+        <v>0.02379909702673345</v>
       </c>
       <c r="I12">
-        <v>0.06362729946175208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.05330858755396067</v>
+      </c>
+      <c r="J12">
+        <v>-0.03617277444074694</v>
+      </c>
+      <c r="K12">
+        <v>-0.08421161831795011</v>
+      </c>
+      <c r="L12">
+        <v>-0.01723040169533052</v>
+      </c>
+      <c r="M12">
+        <v>0.1050048899239966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.05489810561166</v>
+        <v>0.04625342930224858</v>
       </c>
       <c r="C13">
-        <v>-0.02078775120639882</v>
+        <v>0.03361362697999493</v>
       </c>
       <c r="D13">
-        <v>-0.001260660938289943</v>
+        <v>-0.02377210144215243</v>
       </c>
       <c r="E13">
-        <v>0.01217231168599442</v>
+        <v>-0.005403749592507669</v>
       </c>
       <c r="F13">
-        <v>-0.01793379923048408</v>
+        <v>0.04045420027886257</v>
       </c>
       <c r="G13">
-        <v>0.05296988972441688</v>
+        <v>-0.0232714966680692</v>
       </c>
       <c r="H13">
-        <v>-0.03232648360289917</v>
+        <v>0.03292723706451398</v>
       </c>
       <c r="I13">
-        <v>0.003047334117934554</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.009883107243315082</v>
+      </c>
+      <c r="J13">
+        <v>-0.01524388852010686</v>
+      </c>
+      <c r="K13">
+        <v>0.0148365727393086</v>
+      </c>
+      <c r="L13">
+        <v>-0.07935556221444719</v>
+      </c>
+      <c r="M13">
+        <v>-0.003559177059738025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.04175706713528007</v>
+        <v>0.0456444454881523</v>
       </c>
       <c r="C14">
-        <v>-0.02393445070882257</v>
+        <v>0.02704244756781523</v>
       </c>
       <c r="D14">
-        <v>0.02012499132396032</v>
+        <v>0.004925842349370589</v>
       </c>
       <c r="E14">
-        <v>-0.007140586671648717</v>
+        <v>-0.01766316276178966</v>
       </c>
       <c r="F14">
-        <v>0.01732235360323032</v>
+        <v>0.04592946973833625</v>
       </c>
       <c r="G14">
-        <v>0.006957256419214448</v>
+        <v>-0.02040431730281145</v>
       </c>
       <c r="H14">
-        <v>0.09756532098616054</v>
+        <v>0.07142090444685567</v>
       </c>
       <c r="I14">
-        <v>-0.002293314750729475</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.02482665878953015</v>
+      </c>
+      <c r="J14">
+        <v>0.01083261665292649</v>
+      </c>
+      <c r="K14">
+        <v>0.05129467373118812</v>
+      </c>
+      <c r="L14">
+        <v>-0.05433135020361431</v>
+      </c>
+      <c r="M14">
+        <v>-0.04219049806336746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.0366117741847083</v>
+        <v>0.03058752719039087</v>
       </c>
       <c r="C15">
-        <v>0.006148524552499936</v>
+        <v>0.008405168931124529</v>
       </c>
       <c r="D15">
-        <v>-0.004194050333598285</v>
+        <v>-0.06081736671643928</v>
       </c>
       <c r="E15">
-        <v>0.02154375524714164</v>
+        <v>-0.005506589964239513</v>
       </c>
       <c r="F15">
-        <v>0.0144581927059022</v>
+        <v>0.002866763761094333</v>
       </c>
       <c r="G15">
-        <v>0.01582129547618486</v>
+        <v>0.0353453316766218</v>
       </c>
       <c r="H15">
-        <v>0.00528718309712231</v>
+        <v>0.03857239348949491</v>
       </c>
       <c r="I15">
-        <v>-0.01826203995697778</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>-0.02091779133468643</v>
+      </c>
+      <c r="J15">
+        <v>0.002506044044402049</v>
+      </c>
+      <c r="K15">
+        <v>0.05269988214001305</v>
+      </c>
+      <c r="L15">
+        <v>-0.04972249157813542</v>
+      </c>
+      <c r="M15">
+        <v>-0.0006102600301640569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.05109091161234489</v>
+        <v>0.07068092962522078</v>
       </c>
       <c r="C16">
-        <v>-0.08866638179235399</v>
+        <v>0.07864840341839173</v>
       </c>
       <c r="D16">
-        <v>0.03083322398649535</v>
+        <v>0.01937973928987232</v>
       </c>
       <c r="E16">
-        <v>0.02417223252401489</v>
+        <v>-0.0116008890859596</v>
       </c>
       <c r="F16">
-        <v>-0.02358512992317638</v>
+        <v>0.1081896655071544</v>
       </c>
       <c r="G16">
-        <v>0.03235678186793807</v>
+        <v>-0.03071056159285936</v>
       </c>
       <c r="H16">
-        <v>-0.02312175531786891</v>
+        <v>0.03840783417901081</v>
       </c>
       <c r="I16">
-        <v>0.09196854292943116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.05566227671767352</v>
+      </c>
+      <c r="J16">
+        <v>-0.01882403575532264</v>
+      </c>
+      <c r="K16">
+        <v>-0.09265692825428699</v>
+      </c>
+      <c r="L16">
+        <v>-0.01927442561944557</v>
+      </c>
+      <c r="M16">
+        <v>0.05499361297561264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1199,10 +1403,22 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1228,10 +1444,22 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1257,213 +1485,309 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.04032979875601229</v>
+        <v>0.04357605550533258</v>
       </c>
       <c r="C20">
-        <v>-0.04385884316970754</v>
+        <v>0.03117285211145745</v>
       </c>
       <c r="D20">
-        <v>0.01548460807315733</v>
+        <v>-0.02698547560803738</v>
       </c>
       <c r="E20">
-        <v>0.01115889578540379</v>
+        <v>-0.0177210120230853</v>
       </c>
       <c r="F20">
-        <v>-0.001325681051025384</v>
+        <v>0.0544666976514695</v>
       </c>
       <c r="G20">
-        <v>0.03781061642079446</v>
+        <v>-0.02753374558356233</v>
       </c>
       <c r="H20">
-        <v>-0.0001588004259325083</v>
+        <v>0.04272684439112343</v>
       </c>
       <c r="I20">
-        <v>0.03311013886426164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.05453247592224575</v>
+      </c>
+      <c r="J20">
+        <v>-0.01768750300993191</v>
+      </c>
+      <c r="K20">
+        <v>0.01436627110492284</v>
+      </c>
+      <c r="L20">
+        <v>-0.06157098869184643</v>
+      </c>
+      <c r="M20">
+        <v>0.01936182846541837</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.01050143971153146</v>
+        <v>0.02800180196498782</v>
       </c>
       <c r="C21">
-        <v>-0.01730434824405934</v>
+        <v>0.02091379757303858</v>
       </c>
       <c r="D21">
-        <v>-0.003903675425502292</v>
+        <v>-0.01267576461361124</v>
       </c>
       <c r="E21">
-        <v>0.07679779251636526</v>
+        <v>-0.01354132813821838</v>
       </c>
       <c r="F21">
-        <v>0.02886992073026047</v>
+        <v>0.05075865010415521</v>
       </c>
       <c r="G21">
-        <v>-0.09254886976842254</v>
+        <v>0.09581420025830691</v>
       </c>
       <c r="H21">
-        <v>0.00767608369499853</v>
+        <v>-0.01345268883932837</v>
       </c>
       <c r="I21">
-        <v>-0.06952862642339569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.04965847922608511</v>
+      </c>
+      <c r="J21">
+        <v>0.03272664336637039</v>
+      </c>
+      <c r="K21">
+        <v>0.04167871442132869</v>
+      </c>
+      <c r="L21">
+        <v>-0.09322737828574347</v>
+      </c>
+      <c r="M21">
+        <v>-0.01528257761016719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.01207544459397333</v>
+        <v>0.03929228434897741</v>
       </c>
       <c r="C22">
-        <v>-0.06354698000946145</v>
+        <v>0.03159903141173229</v>
       </c>
       <c r="D22">
-        <v>-0.1332250642066469</v>
+        <v>-0.6530505509173472</v>
       </c>
       <c r="E22">
-        <v>0.4632798825886454</v>
+        <v>-0.04871030918362682</v>
       </c>
       <c r="F22">
-        <v>0.2158324259195392</v>
+        <v>-0.08711393295480696</v>
       </c>
       <c r="G22">
-        <v>0.1779914715371152</v>
+        <v>-0.07194479679380041</v>
       </c>
       <c r="H22">
-        <v>-0.2480749818039602</v>
+        <v>-0.08081555530203954</v>
       </c>
       <c r="I22">
-        <v>-0.0681341558100684</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.08376970516305728</v>
+      </c>
+      <c r="J22">
+        <v>0.0898018393819115</v>
+      </c>
+      <c r="K22">
+        <v>-0.03770187399699215</v>
+      </c>
+      <c r="L22">
+        <v>0.02648996940821218</v>
+      </c>
+      <c r="M22">
+        <v>-0.03313617130319403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.01308370285386406</v>
+        <v>0.04000357193805584</v>
       </c>
       <c r="C23">
-        <v>-0.06252761183020972</v>
+        <v>0.03199231105302657</v>
       </c>
       <c r="D23">
-        <v>-0.1333744914972582</v>
+        <v>-0.6547028114733969</v>
       </c>
       <c r="E23">
-        <v>0.4645402263153041</v>
+        <v>-0.04917227781837974</v>
       </c>
       <c r="F23">
-        <v>0.2129407554150176</v>
+        <v>-0.082389618574261</v>
       </c>
       <c r="G23">
-        <v>0.1747504644271677</v>
+        <v>-0.07192224164670293</v>
       </c>
       <c r="H23">
-        <v>-0.2460166963859468</v>
+        <v>-0.08213585711137131</v>
       </c>
       <c r="I23">
-        <v>-0.06996252345072937</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.08240483537491608</v>
+      </c>
+      <c r="J23">
+        <v>0.08826278777849415</v>
+      </c>
+      <c r="K23">
+        <v>-0.03416509073856971</v>
+      </c>
+      <c r="L23">
+        <v>0.03025650846586766</v>
+      </c>
+      <c r="M23">
+        <v>-0.03492926287534192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.07028730630901074</v>
+        <v>0.07640399657175112</v>
       </c>
       <c r="C24">
-        <v>-0.08233675357243528</v>
+        <v>0.07569010646663063</v>
       </c>
       <c r="D24">
-        <v>0.04248784868375603</v>
+        <v>0.01629268247088093</v>
       </c>
       <c r="E24">
-        <v>0.0356796712761184</v>
+        <v>-0.01549781767603576</v>
       </c>
       <c r="F24">
-        <v>-0.03348708931351439</v>
+        <v>0.1093390627406817</v>
       </c>
       <c r="G24">
-        <v>0.01103287637479734</v>
+        <v>-0.01887033186918761</v>
       </c>
       <c r="H24">
-        <v>-0.02380575714267757</v>
+        <v>0.02579628306519777</v>
       </c>
       <c r="I24">
-        <v>0.03600616642884649</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.04956410907852486</v>
+      </c>
+      <c r="J24">
+        <v>-0.0107982258991352</v>
+      </c>
+      <c r="K24">
+        <v>-0.07700825537139314</v>
+      </c>
+      <c r="L24">
+        <v>0.01411892283702919</v>
+      </c>
+      <c r="M24">
+        <v>0.07618269428772487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.06464486361031295</v>
+        <v>0.07296381757477795</v>
       </c>
       <c r="C25">
-        <v>-0.04359768828193492</v>
+        <v>0.04912913559147623</v>
       </c>
       <c r="D25">
-        <v>0.03665553373567125</v>
+        <v>0.03011083628070589</v>
       </c>
       <c r="E25">
-        <v>0.04576639882888761</v>
+        <v>-0.01303647771998472</v>
       </c>
       <c r="F25">
-        <v>-0.03815411488822718</v>
+        <v>0.115769060792742</v>
       </c>
       <c r="G25">
-        <v>0.02747497683773095</v>
+        <v>-0.03496066890031078</v>
       </c>
       <c r="H25">
-        <v>0.008012524048568288</v>
+        <v>0.04343297749826346</v>
       </c>
       <c r="I25">
-        <v>0.04124746489790315</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.05672653935595188</v>
+      </c>
+      <c r="J25">
+        <v>-0.0213055415062538</v>
+      </c>
+      <c r="K25">
+        <v>-0.08427951302642955</v>
+      </c>
+      <c r="L25">
+        <v>0.03348512433084705</v>
+      </c>
+      <c r="M25">
+        <v>0.07029789494025163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.03746443735889723</v>
+        <v>0.04212253843142827</v>
       </c>
       <c r="C26">
-        <v>-0.03197931913054963</v>
+        <v>0.02314968972453115</v>
       </c>
       <c r="D26">
-        <v>0.0370333660252278</v>
+        <v>-0.01277988889019167</v>
       </c>
       <c r="E26">
-        <v>-0.003195243994547177</v>
+        <v>-0.001177033487819078</v>
       </c>
       <c r="F26">
-        <v>0.017960531828021</v>
+        <v>0.0336335755110364</v>
       </c>
       <c r="G26">
-        <v>0.02644031248786348</v>
+        <v>-0.008148253394696534</v>
       </c>
       <c r="H26">
-        <v>-0.009029670522717035</v>
+        <v>0.03563208496747851</v>
       </c>
       <c r="I26">
-        <v>0.01140153416200562</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.016255686763866</v>
+      </c>
+      <c r="J26">
+        <v>0.05749008887096996</v>
+      </c>
+      <c r="K26">
+        <v>0.05464047407401971</v>
+      </c>
+      <c r="L26">
+        <v>-0.1471170595344641</v>
+      </c>
+      <c r="M26">
+        <v>-0.03555893454514497</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1489,271 +1813,391 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.1222681533191288</v>
+        <v>0.1443157928296769</v>
       </c>
       <c r="C28">
-        <v>0.2966172072822925</v>
+        <v>-0.2879624036264151</v>
       </c>
       <c r="D28">
-        <v>0.02252601496830176</v>
+        <v>0.005396761827392807</v>
       </c>
       <c r="E28">
-        <v>0.004023272587322354</v>
+        <v>-0.02552988837155877</v>
       </c>
       <c r="F28">
-        <v>0.0472188180325866</v>
+        <v>-0.002061608784297742</v>
       </c>
       <c r="G28">
-        <v>-0.03373389680500735</v>
+        <v>0.01533397127791561</v>
       </c>
       <c r="H28">
-        <v>-0.01956933095241452</v>
+        <v>-0.01726724300609598</v>
       </c>
       <c r="I28">
-        <v>0.08237357395112666</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.009661213937818524</v>
+      </c>
+      <c r="J28">
+        <v>-0.01372463814571794</v>
+      </c>
+      <c r="K28">
+        <v>0.001051159651183066</v>
+      </c>
+      <c r="L28">
+        <v>-0.04098978055610044</v>
+      </c>
+      <c r="M28">
+        <v>-0.02917995022965101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.04902207631469495</v>
+        <v>0.04477904826064791</v>
       </c>
       <c r="C29">
-        <v>-0.01606315852596017</v>
+        <v>0.02322605255271028</v>
       </c>
       <c r="D29">
-        <v>0.01028723774415927</v>
+        <v>-0.003507126052663147</v>
       </c>
       <c r="E29">
-        <v>0.02230228740698043</v>
+        <v>-0.01917890124735908</v>
       </c>
       <c r="F29">
-        <v>0.007156288313315936</v>
+        <v>0.04658141350801111</v>
       </c>
       <c r="G29">
-        <v>0.01788630197488099</v>
+        <v>-0.03542213163250951</v>
       </c>
       <c r="H29">
-        <v>0.03790685988680396</v>
+        <v>0.05368694381076856</v>
       </c>
       <c r="I29">
-        <v>0.007399987460424294</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.02184819487217061</v>
+      </c>
+      <c r="J29">
+        <v>0.01956512348275861</v>
+      </c>
+      <c r="K29">
+        <v>0.03963642824222161</v>
+      </c>
+      <c r="L29">
+        <v>-0.03951215463036232</v>
+      </c>
+      <c r="M29">
+        <v>-0.03110973809267212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1231629561493348</v>
+        <v>0.0973999001247195</v>
       </c>
       <c r="C30">
-        <v>-0.07900207124034546</v>
+        <v>0.06548232768687061</v>
       </c>
       <c r="D30">
-        <v>0.0662286094449039</v>
+        <v>-0.007753985515247477</v>
       </c>
       <c r="E30">
-        <v>0.06225079163182839</v>
+        <v>-0.02434945380179851</v>
       </c>
       <c r="F30">
-        <v>0.01915851538279652</v>
+        <v>0.1730108631867207</v>
       </c>
       <c r="G30">
-        <v>-0.01172213388009289</v>
+        <v>-0.06023380016746515</v>
       </c>
       <c r="H30">
-        <v>-0.007483588927759558</v>
+        <v>-0.01279733488402786</v>
       </c>
       <c r="I30">
-        <v>0.09130931575956149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.2835901505818875</v>
+      </c>
+      <c r="J30">
+        <v>-0.0002242224340482696</v>
+      </c>
+      <c r="K30">
+        <v>0.01349589235632957</v>
+      </c>
+      <c r="L30">
+        <v>-0.1809131354871231</v>
+      </c>
+      <c r="M30">
+        <v>-0.09845499000975089</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.04491650624103872</v>
+        <v>0.03499771284607017</v>
       </c>
       <c r="C31">
-        <v>-0.02291601111953985</v>
+        <v>0.04447994290370082</v>
       </c>
       <c r="D31">
-        <v>-0.003633949644258397</v>
+        <v>-0.007097381588435766</v>
       </c>
       <c r="E31">
-        <v>-0.01204684443438899</v>
+        <v>0.007969976793583867</v>
       </c>
       <c r="F31">
-        <v>0.0281005340225486</v>
+        <v>0.01425405724979229</v>
       </c>
       <c r="G31">
-        <v>0.03623793183097455</v>
+        <v>-0.0278629475521463</v>
       </c>
       <c r="H31">
-        <v>-0.00835583001106387</v>
+        <v>0.04764879496490525</v>
       </c>
       <c r="I31">
-        <v>-0.01870460453350992</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>-0.01228733655658654</v>
+      </c>
+      <c r="J31">
+        <v>-0.02480937233554186</v>
+      </c>
+      <c r="K31">
+        <v>0.00977870816044688</v>
+      </c>
+      <c r="L31">
+        <v>-0.01766568269526604</v>
+      </c>
+      <c r="M31">
+        <v>0.00674273828722151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.02296843253462469</v>
+        <v>0.0447408443690395</v>
       </c>
       <c r="C32">
-        <v>-0.000560238393274703</v>
+        <v>-0.002898680077300308</v>
       </c>
       <c r="D32">
-        <v>-0.03283331890246959</v>
+        <v>0.003209193193450647</v>
       </c>
       <c r="E32">
-        <v>0.0799084340737632</v>
+        <v>0.001251142960460635</v>
       </c>
       <c r="F32">
-        <v>-0.03375171052300775</v>
+        <v>0.07867359255069335</v>
       </c>
       <c r="G32">
-        <v>0.02633564556771165</v>
+        <v>0.03306408729332073</v>
       </c>
       <c r="H32">
-        <v>-0.04117399991682365</v>
+        <v>0.04681035282396336</v>
       </c>
       <c r="I32">
-        <v>0.09840056520204951</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>-0.06340102427391185</v>
+      </c>
+      <c r="J32">
+        <v>-0.005238482569807659</v>
+      </c>
+      <c r="K32">
+        <v>-0.03500527302768101</v>
+      </c>
+      <c r="L32">
+        <v>-0.05515715570497163</v>
+      </c>
+      <c r="M32">
+        <v>-0.1207828193047467</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.1009070307929138</v>
+        <v>0.09758968425517243</v>
       </c>
       <c r="C33">
-        <v>-0.06199040928602303</v>
+        <v>0.06667953437737238</v>
       </c>
       <c r="D33">
-        <v>0.002061749434965889</v>
+        <v>0.007868568756600195</v>
       </c>
       <c r="E33">
-        <v>-0.001903684179622295</v>
+        <v>0.01909075633387556</v>
       </c>
       <c r="F33">
-        <v>-0.008511615656124325</v>
+        <v>0.06597116579131712</v>
       </c>
       <c r="G33">
-        <v>0.04618562079564061</v>
+        <v>-0.03013341239835966</v>
       </c>
       <c r="H33">
-        <v>-0.02289175455040087</v>
+        <v>0.05343134678396268</v>
       </c>
       <c r="I33">
-        <v>0.01396184700623516</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.03056710239960839</v>
+      </c>
+      <c r="J33">
+        <v>0.02923009288514498</v>
+      </c>
+      <c r="K33">
+        <v>0.02707981703153038</v>
+      </c>
+      <c r="L33">
+        <v>-0.01640999911271937</v>
+      </c>
+      <c r="M33">
+        <v>0.0207879695606725</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05223106758960872</v>
+        <v>0.06263368197384851</v>
       </c>
       <c r="C34">
-        <v>-0.08275236766170166</v>
+        <v>0.06318965211571943</v>
       </c>
       <c r="D34">
-        <v>0.02416145321172973</v>
+        <v>0.02522607607893157</v>
       </c>
       <c r="E34">
-        <v>0.03728995022345043</v>
+        <v>-0.009164905455269406</v>
       </c>
       <c r="F34">
-        <v>-0.02130381824080959</v>
+        <v>0.09690394153796679</v>
       </c>
       <c r="G34">
-        <v>0.01441180771543637</v>
+        <v>-0.02122465895752728</v>
       </c>
       <c r="H34">
-        <v>-0.01859171988384903</v>
+        <v>0.0473667325216706</v>
       </c>
       <c r="I34">
-        <v>0.04655738686012809</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.03738738550903638</v>
+      </c>
+      <c r="J34">
+        <v>-0.01301322621949096</v>
+      </c>
+      <c r="K34">
+        <v>-0.05990914771954349</v>
+      </c>
+      <c r="L34">
+        <v>0.005360732049913947</v>
+      </c>
+      <c r="M34">
+        <v>0.08550143767175812</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.03654109860203859</v>
+        <v>0.02599026397672016</v>
       </c>
       <c r="C35">
-        <v>-0.02882399441483217</v>
+        <v>0.02410860142133703</v>
       </c>
       <c r="D35">
-        <v>0.005631874348833516</v>
+        <v>-0.002732116650703272</v>
       </c>
       <c r="E35">
-        <v>0.01173838298283696</v>
+        <v>0.002537065836675125</v>
       </c>
       <c r="F35">
-        <v>-0.00366796855105747</v>
+        <v>0.01720921822324702</v>
       </c>
       <c r="G35">
-        <v>0.02777366046226169</v>
+        <v>-0.02169255541798276</v>
       </c>
       <c r="H35">
-        <v>-0.009062091359126083</v>
+        <v>0.03511634951835184</v>
       </c>
       <c r="I35">
-        <v>0.02985441484936218</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.04937789370555622</v>
+      </c>
+      <c r="J35">
+        <v>0.01049269026749472</v>
+      </c>
+      <c r="K35">
+        <v>-0.02958249793130892</v>
+      </c>
+      <c r="L35">
+        <v>-0.063811650809323</v>
+      </c>
+      <c r="M35">
+        <v>-0.006950848568697138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.02677023481559669</v>
+        <v>0.0289765127111982</v>
       </c>
       <c r="C36">
-        <v>-0.01979358334937573</v>
+        <v>0.02039217998849631</v>
       </c>
       <c r="D36">
-        <v>0.02626652208712484</v>
+        <v>-0.01506081097924424</v>
       </c>
       <c r="E36">
-        <v>0.01661105944271106</v>
+        <v>-0.01362848143047787</v>
       </c>
       <c r="F36">
-        <v>-0.001222613703282383</v>
+        <v>0.06156960542031509</v>
       </c>
       <c r="G36">
-        <v>0.03309847392358425</v>
+        <v>-0.01403513741230808</v>
       </c>
       <c r="H36">
-        <v>0.01376051877601807</v>
+        <v>0.04443098012135442</v>
       </c>
       <c r="I36">
-        <v>-0.003777185468404527</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.03772028135645365</v>
+      </c>
+      <c r="J36">
+        <v>0.006054078232176132</v>
+      </c>
+      <c r="K36">
+        <v>0.03283258022373878</v>
+      </c>
+      <c r="L36">
+        <v>-0.04518031945645363</v>
+      </c>
+      <c r="M36">
+        <v>0.02546589348612546</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1779,126 +2223,186 @@
       <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.03843892803077595</v>
+        <v>0.03045559697082942</v>
       </c>
       <c r="C38">
-        <v>-0.03101361710073509</v>
+        <v>0.04683246438916722</v>
       </c>
       <c r="D38">
-        <v>-0.02094243158466609</v>
+        <v>-0.02299046511573583</v>
       </c>
       <c r="E38">
-        <v>0.03369215002104907</v>
+        <v>-0.004662164531833538</v>
       </c>
       <c r="F38">
-        <v>-0.006410215291909179</v>
+        <v>-0.04503142195667527</v>
       </c>
       <c r="G38">
-        <v>0.003692869210230855</v>
+        <v>-0.04750017833463641</v>
       </c>
       <c r="H38">
-        <v>-0.04013320795188488</v>
+        <v>-0.04433895329685738</v>
       </c>
       <c r="I38">
-        <v>0.02296489079450573</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>-0.02200406655130909</v>
+      </c>
+      <c r="J38">
+        <v>0.1115004080998931</v>
+      </c>
+      <c r="K38">
+        <v>0.02323267833598183</v>
+      </c>
+      <c r="L38">
+        <v>-0.07241089041137463</v>
+      </c>
+      <c r="M38">
+        <v>-0.04601948420529552</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.09504859547925651</v>
+        <v>0.09829321553271053</v>
       </c>
       <c r="C39">
-        <v>-0.1085244404752417</v>
+        <v>0.09012742972533874</v>
       </c>
       <c r="D39">
-        <v>0.01647588931921687</v>
+        <v>0.08066424206609669</v>
       </c>
       <c r="E39">
-        <v>0.02285547816732244</v>
+        <v>0.02110524067194976</v>
       </c>
       <c r="F39">
-        <v>-0.04286442434164915</v>
+        <v>0.1492999124424635</v>
       </c>
       <c r="G39">
-        <v>-0.01495890510653341</v>
+        <v>-0.09365076798995088</v>
       </c>
       <c r="H39">
-        <v>-0.06898293958462204</v>
+        <v>-0.01612682380671583</v>
       </c>
       <c r="I39">
-        <v>0.145171336162721</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.1269641115291391</v>
+      </c>
+      <c r="J39">
+        <v>-0.05320342300713662</v>
+      </c>
+      <c r="K39">
+        <v>-0.2034771305312031</v>
+      </c>
+      <c r="L39">
+        <v>-0.03275034746042549</v>
+      </c>
+      <c r="M39">
+        <v>-0.02657128319087882</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.05683221308687168</v>
+        <v>0.03496676884526518</v>
       </c>
       <c r="C40">
-        <v>-0.05382111383271354</v>
+        <v>0.05909133474221468</v>
       </c>
       <c r="D40">
-        <v>-0.04389039102187225</v>
+        <v>-0.05177008500258089</v>
       </c>
       <c r="E40">
-        <v>0.1393870389139201</v>
+        <v>0.007213616458532256</v>
       </c>
       <c r="F40">
-        <v>-0.02658988281482282</v>
+        <v>0.120689935517539</v>
       </c>
       <c r="G40">
-        <v>0.04332615842012769</v>
+        <v>0.06264908107050544</v>
       </c>
       <c r="H40">
-        <v>-0.08732457591166677</v>
+        <v>0.01084148339491293</v>
       </c>
       <c r="I40">
-        <v>0.1414116818123597</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.005740875907748176</v>
+      </c>
+      <c r="J40">
+        <v>0.1250203869633965</v>
+      </c>
+      <c r="K40">
+        <v>-0.0236347228942477</v>
+      </c>
+      <c r="L40">
+        <v>-0.1069277359994484</v>
+      </c>
+      <c r="M40">
+        <v>0.01990619643015885</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04286785600642533</v>
+        <v>0.0348218376002237</v>
       </c>
       <c r="C41">
-        <v>-0.05470666889873999</v>
+        <v>0.03639096865516474</v>
       </c>
       <c r="D41">
-        <v>0.01163752302525903</v>
+        <v>0.01752207153315038</v>
       </c>
       <c r="E41">
-        <v>-0.006268832864992154</v>
+        <v>0.00268339589268083</v>
       </c>
       <c r="F41">
-        <v>-0.01243273435999063</v>
+        <v>0.01594032024799485</v>
       </c>
       <c r="G41">
-        <v>0.02584239187334069</v>
+        <v>-0.02884005821002317</v>
       </c>
       <c r="H41">
-        <v>-0.01934413719101679</v>
+        <v>0.007386195055182057</v>
       </c>
       <c r="I41">
-        <v>0.03720842209203919</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>-0.01340872921324434</v>
+      </c>
+      <c r="J41">
+        <v>0.01326652361312136</v>
+      </c>
+      <c r="K41">
+        <v>-0.00437132566556654</v>
+      </c>
+      <c r="L41">
+        <v>-0.04359945086059943</v>
+      </c>
+      <c r="M41">
+        <v>0.02769748942708881</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1924,68 +2428,104 @@
       <c r="I42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.05551918881909707</v>
+        <v>0.05015982894866834</v>
       </c>
       <c r="C43">
-        <v>-0.0437373976759485</v>
+        <v>0.0469789124630134</v>
       </c>
       <c r="D43">
-        <v>0.02932966084396499</v>
+        <v>-0.01278005880917454</v>
       </c>
       <c r="E43">
-        <v>0.01648352167575937</v>
+        <v>-0.01278920402755206</v>
       </c>
       <c r="F43">
-        <v>0.01454194407019449</v>
+        <v>0.01227149962487642</v>
       </c>
       <c r="G43">
-        <v>0.01808691556353648</v>
+        <v>-0.06206017103551787</v>
       </c>
       <c r="H43">
-        <v>-0.03551302073679567</v>
+        <v>0.0001245180714871907</v>
       </c>
       <c r="I43">
-        <v>-0.01828498072793089</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.0001460511495813065</v>
+      </c>
+      <c r="J43">
+        <v>-0.003190977039542478</v>
+      </c>
+      <c r="K43">
+        <v>-0.01101365342622033</v>
+      </c>
+      <c r="L43">
+        <v>-0.0316836415082229</v>
+      </c>
+      <c r="M43">
+        <v>0.02839267021988061</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.0538814616450369</v>
+        <v>0.08313403168347372</v>
       </c>
       <c r="C44">
-        <v>-0.02985682919199679</v>
+        <v>0.06120444677905497</v>
       </c>
       <c r="D44">
-        <v>0.0660980362989604</v>
+        <v>-0.06990002813856838</v>
       </c>
       <c r="E44">
-        <v>0.1274822602105568</v>
+        <v>-0.09059461898736142</v>
       </c>
       <c r="F44">
-        <v>-0.04188431340341906</v>
+        <v>0.1582086145872209</v>
       </c>
       <c r="G44">
-        <v>0.03379438359534606</v>
+        <v>-0.009454070481512181</v>
       </c>
       <c r="H44">
-        <v>0.002725594322415475</v>
+        <v>0.06903964812369189</v>
       </c>
       <c r="I44">
-        <v>0.1113828055891725</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.04983513539156096</v>
+      </c>
+      <c r="J44">
+        <v>0.03957949233055749</v>
+      </c>
+      <c r="K44">
+        <v>-0.04203487849239157</v>
+      </c>
+      <c r="L44">
+        <v>-0.06316388971775315</v>
+      </c>
+      <c r="M44">
+        <v>-0.0715044343582328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2011,329 +2551,473 @@
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.02259948766792569</v>
+        <v>0.03383697594828082</v>
       </c>
       <c r="C46">
-        <v>-0.04230305336927433</v>
+        <v>0.03838910593140023</v>
       </c>
       <c r="D46">
-        <v>0.01527914612442036</v>
+        <v>-0.04945462041090438</v>
       </c>
       <c r="E46">
-        <v>0.0468442747486731</v>
+        <v>-0.0340463090679109</v>
       </c>
       <c r="F46">
-        <v>-0.002044138622409231</v>
+        <v>0.02121447266285089</v>
       </c>
       <c r="G46">
-        <v>0.002098197938404717</v>
+        <v>0.008189103250009931</v>
       </c>
       <c r="H46">
-        <v>-0.0001213789808679254</v>
+        <v>0.06452452387792744</v>
       </c>
       <c r="I46">
-        <v>0.02145130534247514</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.001306464571691439</v>
+      </c>
+      <c r="J46">
+        <v>0.03001128017581183</v>
+      </c>
+      <c r="K46">
+        <v>0.05740740548706331</v>
+      </c>
+      <c r="L46">
+        <v>-0.06676597428870897</v>
+      </c>
+      <c r="M46">
+        <v>-0.006167180637476503</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.02658438910523057</v>
+        <v>0.04611466309537607</v>
       </c>
       <c r="C47">
-        <v>-0.003041827432399231</v>
+        <v>0.02784642810584283</v>
       </c>
       <c r="D47">
-        <v>-0.01524153528093164</v>
+        <v>-0.02159040147356199</v>
       </c>
       <c r="E47">
-        <v>0.06548228651408168</v>
+        <v>-0.005711792590103885</v>
       </c>
       <c r="F47">
-        <v>0.00399876874581469</v>
+        <v>0.03084125403099572</v>
       </c>
       <c r="G47">
-        <v>0.04306868331227952</v>
+        <v>-0.02604719651130546</v>
       </c>
       <c r="H47">
-        <v>0.02276692039629225</v>
+        <v>0.02470188246053913</v>
       </c>
       <c r="I47">
-        <v>-0.02143056591027295</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.03378269814444531</v>
+      </c>
+      <c r="J47">
+        <v>0.0249119726730445</v>
+      </c>
+      <c r="K47">
+        <v>0.03718243319547661</v>
+      </c>
+      <c r="L47">
+        <v>-0.01928252874516727</v>
+      </c>
+      <c r="M47">
+        <v>0.03915428467878915</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03142865577846537</v>
+        <v>0.04208967202268592</v>
       </c>
       <c r="C48">
-        <v>-0.02700431803590901</v>
+        <v>0.02065754255873056</v>
       </c>
       <c r="D48">
-        <v>0.005126817264570337</v>
+        <v>-0.01519346224039536</v>
       </c>
       <c r="E48">
-        <v>0.04031069937456295</v>
+        <v>-0.001217940902591016</v>
       </c>
       <c r="F48">
-        <v>0.01762856109560328</v>
+        <v>0.06668979809039176</v>
       </c>
       <c r="G48">
-        <v>0.04504696540963496</v>
+        <v>0.02015563615150258</v>
       </c>
       <c r="H48">
-        <v>-0.02099099985927416</v>
+        <v>0.05460969543032721</v>
       </c>
       <c r="I48">
-        <v>-0.006272004592770978</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.03781946420549157</v>
+      </c>
+      <c r="J48">
+        <v>-0.009501695236962978</v>
+      </c>
+      <c r="K48">
+        <v>0.002287434727196724</v>
+      </c>
+      <c r="L48">
+        <v>-0.05404276274600556</v>
+      </c>
+      <c r="M48">
+        <v>0.02795121242935867</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.1914486168423704</v>
+        <v>0.2253286390203438</v>
       </c>
       <c r="C49">
-        <v>-0.1245888580069838</v>
+        <v>0.08509718591127365</v>
       </c>
       <c r="D49">
-        <v>0.08741865177527179</v>
+        <v>0.06465093218886266</v>
       </c>
       <c r="E49">
-        <v>-0.07030580821189196</v>
+        <v>-0.0330028183326951</v>
       </c>
       <c r="F49">
-        <v>0.1058707258304231</v>
+        <v>-0.227086131353884</v>
       </c>
       <c r="G49">
-        <v>-0.1755208351085086</v>
+        <v>0.1558487856076854</v>
       </c>
       <c r="H49">
-        <v>0.03918675095636091</v>
+        <v>-0.05019196991880694</v>
       </c>
       <c r="I49">
-        <v>0.03219527004520981</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.09956616388398846</v>
+      </c>
+      <c r="J49">
+        <v>0.06919882622684632</v>
+      </c>
+      <c r="K49">
+        <v>-0.1611000265799307</v>
+      </c>
+      <c r="L49">
+        <v>0.1395979308167906</v>
+      </c>
+      <c r="M49">
+        <v>0.07416878923554437</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05222684327313173</v>
+        <v>0.04277116291774</v>
       </c>
       <c r="C50">
-        <v>-0.03120844506792261</v>
+        <v>0.04220420351336077</v>
       </c>
       <c r="D50">
-        <v>0.00524690940333902</v>
+        <v>-0.003811170702057251</v>
       </c>
       <c r="E50">
-        <v>0.01601108129074421</v>
+        <v>0.008929019909063318</v>
       </c>
       <c r="F50">
-        <v>0.01409544507898106</v>
+        <v>0.04101564907858783</v>
       </c>
       <c r="G50">
-        <v>0.07492243193457243</v>
+        <v>-0.03894716934843712</v>
       </c>
       <c r="H50">
-        <v>0.03142949523968767</v>
+        <v>0.0444132595615739</v>
       </c>
       <c r="I50">
-        <v>-0.00716396412350693</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.01487643953834116</v>
+      </c>
+      <c r="J50">
+        <v>-0.001802185644395146</v>
+      </c>
+      <c r="K50">
+        <v>0.04931020965887109</v>
+      </c>
+      <c r="L50">
+        <v>-0.0260875719583903</v>
+      </c>
+      <c r="M50">
+        <v>-0.04676671103957941</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.02445955083338204</v>
+        <v>0.02984759740190503</v>
       </c>
       <c r="C51">
-        <v>-0.01272430634622196</v>
+        <v>0.005669305769010604</v>
       </c>
       <c r="D51">
-        <v>-0.00938538804245995</v>
+        <v>0.0008423899405960166</v>
       </c>
       <c r="E51">
-        <v>0.01227653726424947</v>
+        <v>-0.01693192860321233</v>
       </c>
       <c r="F51">
-        <v>-0.01151250853258345</v>
+        <v>-0.017581427702233</v>
       </c>
       <c r="G51">
-        <v>-0.02849787230840386</v>
+        <v>-0.002519232831476374</v>
       </c>
       <c r="H51">
-        <v>-0.001981162504411576</v>
+        <v>-0.02422298216191135</v>
       </c>
       <c r="I51">
-        <v>0.02903054086835367</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.008956769476466189</v>
+      </c>
+      <c r="J51">
+        <v>-0.01521413859618704</v>
+      </c>
+      <c r="K51">
+        <v>-0.06301453015752706</v>
+      </c>
+      <c r="L51">
+        <v>0.06076104559767483</v>
+      </c>
+      <c r="M51">
+        <v>0.01785604191615678</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.01375058460176644</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.003759003525441079</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01649062219865638</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.004770793557594408</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.00408337742726124</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.002594609527550639</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>-0.008527434725910889</v>
       </c>
       <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.003827025829811559</v>
+      </c>
+      <c r="J52">
+        <v>-0.01617922473896978</v>
+      </c>
+      <c r="K52">
+        <v>-0.01143768111021814</v>
+      </c>
+      <c r="L52">
+        <v>-0.004914495974356556</v>
+      </c>
+      <c r="M52">
+        <v>-0.03641333442457881</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1650586411585847</v>
+        <v>0.154297586126154</v>
       </c>
       <c r="C53">
-        <v>-0.01639035014041517</v>
+        <v>0.04624497607631029</v>
       </c>
       <c r="D53">
-        <v>0.02519313012117249</v>
+        <v>0.01628724166184704</v>
       </c>
       <c r="E53">
-        <v>-0.08266338781599887</v>
+        <v>0.005171976242763731</v>
       </c>
       <c r="F53">
-        <v>-0.1455813667850354</v>
+        <v>-0.06940413718573087</v>
       </c>
       <c r="G53">
-        <v>0.217642005346056</v>
+        <v>-0.2101452404495637</v>
       </c>
       <c r="H53">
-        <v>-0.0134029536871668</v>
+        <v>0.05300536588061745</v>
       </c>
       <c r="I53">
-        <v>-0.04343540367064776</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>-0.1043570399134773</v>
+      </c>
+      <c r="J53">
+        <v>0.02520046341170886</v>
+      </c>
+      <c r="K53">
+        <v>0.0822670867636881</v>
+      </c>
+      <c r="L53">
+        <v>0.06904000269897528</v>
+      </c>
+      <c r="M53">
+        <v>-0.1151839076837476</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.05138358426585789</v>
+        <v>0.06014587959759184</v>
       </c>
       <c r="C54">
-        <v>-0.0371378893515208</v>
+        <v>0.03331506341402937</v>
       </c>
       <c r="D54">
-        <v>0.03698829472690636</v>
+        <v>-0.02299355100105989</v>
       </c>
       <c r="E54">
-        <v>0.0347924994419603</v>
+        <v>-0.02645886279228672</v>
       </c>
       <c r="F54">
-        <v>-0.0046692537369622</v>
+        <v>0.104419817962731</v>
       </c>
       <c r="G54">
-        <v>0.03246045545592711</v>
+        <v>0.01479283345563872</v>
       </c>
       <c r="H54">
-        <v>-0.01064508481090273</v>
+        <v>0.06080391681944458</v>
       </c>
       <c r="I54">
-        <v>-0.01802679411434618</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>-0.003961917086762234</v>
+      </c>
+      <c r="J54">
+        <v>-0.02184906398638765</v>
+      </c>
+      <c r="K54">
+        <v>0.0845765994675271</v>
+      </c>
+      <c r="L54">
+        <v>-0.1093995490304558</v>
+      </c>
+      <c r="M54">
+        <v>0.0005926733913107093</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.09227069683545155</v>
+        <v>0.08646895424628416</v>
       </c>
       <c r="C55">
-        <v>-0.008811895429286454</v>
+        <v>0.03713462924726377</v>
       </c>
       <c r="D55">
-        <v>0.02026720461307644</v>
+        <v>0.02651823265522972</v>
       </c>
       <c r="E55">
-        <v>-0.01493381300151202</v>
+        <v>-0.004626279358060471</v>
       </c>
       <c r="F55">
-        <v>-0.1194464388242092</v>
+        <v>0.005946148711284009</v>
       </c>
       <c r="G55">
-        <v>0.2020234119684211</v>
+        <v>-0.1445248747657389</v>
       </c>
       <c r="H55">
-        <v>0.01600933311493781</v>
+        <v>0.05750021532133723</v>
       </c>
       <c r="I55">
-        <v>-0.03049141103153986</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>-0.06491609778877032</v>
+      </c>
+      <c r="J55">
+        <v>0.01948566335359683</v>
+      </c>
+      <c r="K55">
+        <v>0.05180737870252985</v>
+      </c>
+      <c r="L55">
+        <v>0.05036644094832315</v>
+      </c>
+      <c r="M55">
+        <v>-0.05705540422177008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1658555937653411</v>
+        <v>0.149758576959695</v>
       </c>
       <c r="C56">
-        <v>-0.0151556149942816</v>
+        <v>0.06896061288281127</v>
       </c>
       <c r="D56">
-        <v>0.0464401784175393</v>
+        <v>0.0326009665515657</v>
       </c>
       <c r="E56">
-        <v>-0.07550644455833437</v>
+        <v>-0.01034075746122141</v>
       </c>
       <c r="F56">
-        <v>-0.1187335567926963</v>
+        <v>-0.03945310261391885</v>
       </c>
       <c r="G56">
-        <v>0.2037749414354269</v>
+        <v>-0.2092875543931891</v>
       </c>
       <c r="H56">
-        <v>-0.02335693069341671</v>
+        <v>0.0261030357281909</v>
       </c>
       <c r="I56">
-        <v>-0.0726329322959065</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>-0.1327404151446224</v>
+      </c>
+      <c r="J56">
+        <v>0.03591791864574301</v>
+      </c>
+      <c r="K56">
+        <v>0.08025377658872677</v>
+      </c>
+      <c r="L56">
+        <v>0.06053340907028737</v>
+      </c>
+      <c r="M56">
+        <v>-0.07246386115776207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2359,1112 +3043,1580 @@
       <c r="I57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.03881659354574896</v>
+        <v>0.03682936344353352</v>
       </c>
       <c r="C58">
-        <v>-0.05012726489461843</v>
+        <v>0.03217938686791731</v>
       </c>
       <c r="D58">
-        <v>0.01374385770769205</v>
+        <v>-0.08505174724416109</v>
       </c>
       <c r="E58">
-        <v>0.3192787102549178</v>
+        <v>-0.02735434966230898</v>
       </c>
       <c r="F58">
-        <v>0.2226417556705827</v>
+        <v>0.03614052555530132</v>
       </c>
       <c r="G58">
-        <v>-0.00498981348646518</v>
+        <v>0.0474945252074233</v>
       </c>
       <c r="H58">
-        <v>0.1598263488992072</v>
+        <v>0.04643833918887297</v>
       </c>
       <c r="I58">
-        <v>-0.01585998058513414</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.2800504068055437</v>
+      </c>
+      <c r="J58">
+        <v>-0.2418572309516638</v>
+      </c>
+      <c r="K58">
+        <v>-0.1244556472612659</v>
+      </c>
+      <c r="L58">
+        <v>-0.01633793413098828</v>
+      </c>
+      <c r="M58">
+        <v>0.2470169747928638</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.2512822659934127</v>
+        <v>0.229331425058661</v>
       </c>
       <c r="C59">
-        <v>0.4030272106923809</v>
+        <v>-0.3002861634812481</v>
       </c>
       <c r="D59">
-        <v>0.02283629617405334</v>
+        <v>0.03968196360706198</v>
       </c>
       <c r="E59">
-        <v>0.0399950213137241</v>
+        <v>-0.006689654095814791</v>
       </c>
       <c r="F59">
-        <v>-0.0705590251480607</v>
+        <v>0.02257349661654923</v>
       </c>
       <c r="G59">
-        <v>0.0004518998536731597</v>
+        <v>-0.05745595037652711</v>
       </c>
       <c r="H59">
-        <v>-0.08004567180314512</v>
+        <v>-0.02215108209996021</v>
       </c>
       <c r="I59">
-        <v>0.00750603413896407</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>-0.1276811632292741</v>
+      </c>
+      <c r="J59">
+        <v>-0.02603787061632917</v>
+      </c>
+      <c r="K59">
+        <v>-0.05708868571207837</v>
+      </c>
+      <c r="L59">
+        <v>0.03962820703434757</v>
+      </c>
+      <c r="M59">
+        <v>0.01044981112246667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.2472658658661136</v>
+        <v>0.2437940431735184</v>
       </c>
       <c r="C60">
-        <v>-0.06968075031772671</v>
+        <v>0.118189257440831</v>
       </c>
       <c r="D60">
-        <v>0.1020616033481665</v>
+        <v>0.06518618391837643</v>
       </c>
       <c r="E60">
-        <v>0.02394599180387792</v>
+        <v>-0.05103661001328583</v>
       </c>
       <c r="F60">
-        <v>0.0310312902869873</v>
+        <v>-0.09375684713713843</v>
       </c>
       <c r="G60">
-        <v>-0.07050950505479654</v>
+        <v>0.04447290423437174</v>
       </c>
       <c r="H60">
-        <v>0.061500344132813</v>
+        <v>-0.0968944844012314</v>
       </c>
       <c r="I60">
-        <v>-0.04740982917320109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.01556366549210679</v>
+      </c>
+      <c r="J60">
+        <v>-0.007897246576408884</v>
+      </c>
+      <c r="K60">
+        <v>0.06747948227039798</v>
+      </c>
+      <c r="L60">
+        <v>0.228208913660907</v>
+      </c>
+      <c r="M60">
+        <v>-0.008422278151167121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.08346867358805757</v>
+        <v>0.09178337621097943</v>
       </c>
       <c r="C61">
-        <v>-0.0627089025894572</v>
+        <v>0.06506105560165282</v>
       </c>
       <c r="D61">
-        <v>0.02056157638766805</v>
+        <v>0.04249053272694712</v>
       </c>
       <c r="E61">
-        <v>0.003810871974234396</v>
+        <v>-0.008640835144619637</v>
       </c>
       <c r="F61">
-        <v>-0.01064089564466232</v>
+        <v>0.1129442351411233</v>
       </c>
       <c r="G61">
-        <v>0.01275341864893282</v>
+        <v>-0.08181681354125364</v>
       </c>
       <c r="H61">
-        <v>-0.03605132808894852</v>
+        <v>0.0178941387963852</v>
       </c>
       <c r="I61">
-        <v>0.07408383159225825</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.04912019410027334</v>
+      </c>
+      <c r="J61">
+        <v>-0.01216877371356311</v>
+      </c>
+      <c r="K61">
+        <v>-0.08547570201861186</v>
+      </c>
+      <c r="L61">
+        <v>-0.0497748044181008</v>
+      </c>
+      <c r="M61">
+        <v>-0.01117634803296143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1676173712931819</v>
+        <v>0.1430671370748737</v>
       </c>
       <c r="C62">
-        <v>-0.06252371185314971</v>
+        <v>0.07675723143992833</v>
       </c>
       <c r="D62">
-        <v>0.01341564736345412</v>
+        <v>0.03353624564643005</v>
       </c>
       <c r="E62">
-        <v>-0.1241689340894123</v>
+        <v>0.03383410699091549</v>
       </c>
       <c r="F62">
-        <v>-0.1769628896402369</v>
+        <v>-0.03272505634540082</v>
       </c>
       <c r="G62">
-        <v>0.172303856029204</v>
+        <v>-0.1618780089177122</v>
       </c>
       <c r="H62">
-        <v>-0.03875990006329046</v>
+        <v>0.06822736549806206</v>
       </c>
       <c r="I62">
-        <v>-0.02764021599126059</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>-0.1270255028921255</v>
+      </c>
+      <c r="J62">
+        <v>0.09035034783441942</v>
+      </c>
+      <c r="K62">
+        <v>0.115928367580754</v>
+      </c>
+      <c r="L62">
+        <v>0.0264876383561969</v>
+      </c>
+      <c r="M62">
+        <v>-0.05708807663388454</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.04498644616500681</v>
+        <v>0.04556366268324415</v>
       </c>
       <c r="C63">
-        <v>-0.04130684536953953</v>
+        <v>0.02744124571248264</v>
       </c>
       <c r="D63">
-        <v>0.01687257328161893</v>
+        <v>0.005201028133355482</v>
       </c>
       <c r="E63">
-        <v>0.007127012478334456</v>
+        <v>0.01383586866426868</v>
       </c>
       <c r="F63">
-        <v>-0.01030415907142308</v>
+        <v>0.059102972287881</v>
       </c>
       <c r="G63">
-        <v>0.03894858846726899</v>
+        <v>-0.01044980092783766</v>
       </c>
       <c r="H63">
-        <v>0.05502152465214583</v>
+        <v>0.03090284419660892</v>
       </c>
       <c r="I63">
-        <v>0.01082797139742593</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.04947799158459129</v>
+      </c>
+      <c r="J63">
+        <v>-0.005894960252132988</v>
+      </c>
+      <c r="K63">
+        <v>0.02768604495283445</v>
+      </c>
+      <c r="L63">
+        <v>-0.02321465323283498</v>
+      </c>
+      <c r="M63">
+        <v>-0.01249790032162113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.1022932281035214</v>
+        <v>0.1000805877794034</v>
       </c>
       <c r="C64">
-        <v>-0.03478958912448184</v>
+        <v>0.04886423534686604</v>
       </c>
       <c r="D64">
-        <v>0.03292396658232053</v>
+        <v>-0.008764873983206021</v>
       </c>
       <c r="E64">
-        <v>0.038499628746436</v>
+        <v>-0.03347751130149394</v>
       </c>
       <c r="F64">
-        <v>0.01140811964460408</v>
+        <v>0.06257891082706116</v>
       </c>
       <c r="G64">
-        <v>-0.0007835451076123148</v>
+        <v>-0.0196137398448376</v>
       </c>
       <c r="H64">
-        <v>-0.007654173572717926</v>
+        <v>-0.006379399031597664</v>
       </c>
       <c r="I64">
-        <v>0.08404929039000418</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.08123695374504078</v>
+      </c>
+      <c r="J64">
+        <v>-0.004281432193013993</v>
+      </c>
+      <c r="K64">
+        <v>-0.01436568346247222</v>
+      </c>
+      <c r="L64">
+        <v>-0.03972362661220357</v>
+      </c>
+      <c r="M64">
+        <v>-0.03040812199302551</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1304295766328289</v>
+        <v>0.1257330185785526</v>
       </c>
       <c r="C65">
-        <v>-0.05872174020592972</v>
+        <v>0.04734018229872757</v>
       </c>
       <c r="D65">
-        <v>0.05475453270222284</v>
+        <v>0.00443606172123301</v>
       </c>
       <c r="E65">
-        <v>0.1330988230894667</v>
+        <v>-0.007252742182809357</v>
       </c>
       <c r="F65">
-        <v>0.1234984243190168</v>
+        <v>0.06588882666768235</v>
       </c>
       <c r="G65">
-        <v>-0.04000842458168612</v>
+        <v>0.1827767681215278</v>
       </c>
       <c r="H65">
-        <v>0.5471032283973634</v>
+        <v>-0.05103695259996054</v>
       </c>
       <c r="I65">
-        <v>-0.4026961364056831</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.2329878365965255</v>
+      </c>
+      <c r="J65">
+        <v>-0.1274427449405624</v>
+      </c>
+      <c r="K65">
+        <v>0.5867401422989613</v>
+      </c>
+      <c r="L65">
+        <v>0.2130205219404741</v>
+      </c>
+      <c r="M65">
+        <v>-0.03400128011713993</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1563886622901788</v>
+        <v>0.1272790190412142</v>
       </c>
       <c r="C66">
-        <v>-0.1570923219016571</v>
+        <v>0.1335281517178167</v>
       </c>
       <c r="D66">
-        <v>0.03981515845442902</v>
+        <v>0.1037197696642279</v>
       </c>
       <c r="E66">
-        <v>-0.02253337539259933</v>
+        <v>0.03328432407426351</v>
       </c>
       <c r="F66">
-        <v>-0.08937187925260592</v>
+        <v>0.1638141183318775</v>
       </c>
       <c r="G66">
-        <v>-0.03596570950961667</v>
+        <v>-0.09795325303629446</v>
       </c>
       <c r="H66">
-        <v>-0.1305173630048384</v>
+        <v>-0.006967078751646858</v>
       </c>
       <c r="I66">
-        <v>0.3042416141720412</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.1059000324337188</v>
+      </c>
+      <c r="J66">
+        <v>0.006824047622575303</v>
+      </c>
+      <c r="K66">
+        <v>-0.2545038394789125</v>
+      </c>
+      <c r="L66">
+        <v>-0.03746771433668543</v>
+      </c>
+      <c r="M66">
+        <v>-0.04326704530479565</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.07558356027762177</v>
+        <v>0.08151548722458807</v>
       </c>
       <c r="C67">
-        <v>-0.05124386104673068</v>
+        <v>0.06165365870519033</v>
       </c>
       <c r="D67">
-        <v>0.006310652446786178</v>
+        <v>-0.01433864845679153</v>
       </c>
       <c r="E67">
-        <v>0.001604348393640972</v>
+        <v>-0.01927518684060495</v>
       </c>
       <c r="F67">
-        <v>-0.004272096931755246</v>
+        <v>-0.03593077938626187</v>
       </c>
       <c r="G67">
-        <v>-0.01690908331718596</v>
+        <v>-0.08526130366180459</v>
       </c>
       <c r="H67">
-        <v>-0.05445243894643307</v>
+        <v>-0.08606870063064483</v>
       </c>
       <c r="I67">
-        <v>0.02512310291746212</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>-0.04172183854333227</v>
+      </c>
+      <c r="J67">
+        <v>0.1078032627111714</v>
+      </c>
+      <c r="K67">
+        <v>-0.02509626794076736</v>
+      </c>
+      <c r="L67">
+        <v>-0.0430095354695087</v>
+      </c>
+      <c r="M67">
+        <v>-0.009496247911265212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.1070794574138393</v>
+        <v>0.1219991238495145</v>
       </c>
       <c r="C68">
-        <v>0.2707103981007889</v>
+        <v>-0.2748588900078022</v>
       </c>
       <c r="D68">
-        <v>-0.008035185917181269</v>
+        <v>0.002136259355061518</v>
       </c>
       <c r="E68">
-        <v>0.01859278877472261</v>
+        <v>-0.002099965098706741</v>
       </c>
       <c r="F68">
-        <v>0.008746665804939935</v>
+        <v>0.02265263253307171</v>
       </c>
       <c r="G68">
-        <v>0.0534585785729525</v>
+        <v>-0.03175152918908316</v>
       </c>
       <c r="H68">
-        <v>0.009077303522335559</v>
+        <v>0.01944789441764867</v>
       </c>
       <c r="I68">
-        <v>-0.01542380257152306</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.04631372670122642</v>
+      </c>
+      <c r="J68">
+        <v>-0.01920973605453858</v>
+      </c>
+      <c r="K68">
+        <v>0.05314872562778966</v>
+      </c>
+      <c r="L68">
+        <v>-0.007844419005536186</v>
+      </c>
+      <c r="M68">
+        <v>-0.03327850962342693</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.03917284414048214</v>
+        <v>0.04330299272590409</v>
       </c>
       <c r="C69">
-        <v>-0.03059080390344128</v>
+        <v>0.02277298412785236</v>
       </c>
       <c r="D69">
-        <v>0.003077915520482485</v>
+        <v>-0.01039283528524072</v>
       </c>
       <c r="E69">
-        <v>0.01102419647226125</v>
+        <v>0.00625051376717133</v>
       </c>
       <c r="F69">
-        <v>-0.04267894370895519</v>
+        <v>0.01283906120826306</v>
       </c>
       <c r="G69">
-        <v>0.01408272567604037</v>
+        <v>-0.03927936199755319</v>
       </c>
       <c r="H69">
-        <v>-0.016683858033854</v>
+        <v>-0.007001109148215278</v>
       </c>
       <c r="I69">
-        <v>-0.03694640313552449</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>-0.004913742725059455</v>
+      </c>
+      <c r="J69">
+        <v>0.02874930225933676</v>
+      </c>
+      <c r="K69">
+        <v>0.01026858922227397</v>
+      </c>
+      <c r="L69">
+        <v>0.001765493448256922</v>
+      </c>
+      <c r="M69">
+        <v>0.06620239168550898</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.04341329746906451</v>
+        <v>0.0507409739969206</v>
       </c>
       <c r="C70">
-        <v>-0.0004987247067982129</v>
+        <v>0.03402844902723487</v>
       </c>
       <c r="D70">
-        <v>0.03301179373634384</v>
+        <v>0.02076886568998461</v>
       </c>
       <c r="E70">
-        <v>-0.02523348050395826</v>
+        <v>-0.01506775878613861</v>
       </c>
       <c r="F70">
-        <v>0.08628803403815619</v>
+        <v>-0.00235151608965368</v>
       </c>
       <c r="G70">
-        <v>-0.08471709388146333</v>
+        <v>0.06311989434600897</v>
       </c>
       <c r="H70">
-        <v>-0.03185106398285797</v>
+        <v>0.007037294896093666</v>
       </c>
       <c r="I70">
-        <v>-0.02365821798819103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>-0.06800718106858326</v>
+      </c>
+      <c r="J70">
+        <v>0.07847390796568325</v>
+      </c>
+      <c r="K70">
+        <v>0.1238751393168034</v>
+      </c>
+      <c r="L70">
+        <v>-0.271234059929705</v>
+      </c>
+      <c r="M70">
+        <v>0.2252353744474799</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.1098606826261069</v>
+        <v>0.1367046624275806</v>
       </c>
       <c r="C71">
-        <v>0.2791197782935789</v>
+        <v>-0.2821590364688834</v>
       </c>
       <c r="D71">
-        <v>0.02059039418354989</v>
+        <v>0.007357131912190358</v>
       </c>
       <c r="E71">
-        <v>0.00587342094592892</v>
+        <v>-0.02064089943953989</v>
       </c>
       <c r="F71">
-        <v>0.02824518246878128</v>
+        <v>0.0269034842841996</v>
       </c>
       <c r="G71">
-        <v>0.03050392434330255</v>
+        <v>-0.03401351200840211</v>
       </c>
       <c r="H71">
-        <v>0.001731688576628956</v>
+        <v>0.01140177053470314</v>
       </c>
       <c r="I71">
-        <v>0.02882241965108825</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.04770206065492945</v>
+      </c>
+      <c r="J71">
+        <v>0.00341256678607763</v>
+      </c>
+      <c r="K71">
+        <v>0.007018996774659329</v>
+      </c>
+      <c r="L71">
+        <v>-0.004949755118805853</v>
+      </c>
+      <c r="M71">
+        <v>-0.01877398100353347</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1820404552187983</v>
+        <v>0.1439875285480705</v>
       </c>
       <c r="C72">
-        <v>-0.05165349558880417</v>
+        <v>0.03414577556614391</v>
       </c>
       <c r="D72">
-        <v>-0.2340152884801495</v>
+        <v>-0.004290262641683673</v>
       </c>
       <c r="E72">
-        <v>-0.02224350135452384</v>
+        <v>0.1838746375897752</v>
       </c>
       <c r="F72">
-        <v>-0.09326663260777386</v>
+        <v>0.05029371827336823</v>
       </c>
       <c r="G72">
-        <v>-0.04263051247952328</v>
+        <v>-0.006722914629650407</v>
       </c>
       <c r="H72">
-        <v>0.122022875563402</v>
+        <v>-0.05301683719748752</v>
       </c>
       <c r="I72">
-        <v>-0.06530827897488788</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>-0.01967128928374372</v>
+      </c>
+      <c r="J72">
+        <v>0.01098197239329774</v>
+      </c>
+      <c r="K72">
+        <v>0.1303687827929161</v>
+      </c>
+      <c r="L72">
+        <v>0.1185747125876826</v>
+      </c>
+      <c r="M72">
+        <v>-0.02070793905905047</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2656303736156779</v>
+        <v>0.2424499146440858</v>
       </c>
       <c r="C73">
-        <v>-0.1883014409183082</v>
+        <v>0.1568423301236045</v>
       </c>
       <c r="D73">
-        <v>0.1372753697158491</v>
+        <v>0.1645132953914052</v>
       </c>
       <c r="E73">
-        <v>-0.05305436219731991</v>
+        <v>-0.1040552902566449</v>
       </c>
       <c r="F73">
-        <v>0.1782235191358159</v>
+        <v>-0.4064590205321401</v>
       </c>
       <c r="G73">
-        <v>-0.0842261304507697</v>
+        <v>0.1245578228052097</v>
       </c>
       <c r="H73">
-        <v>0.2091675490628074</v>
+        <v>-0.2400041784769626</v>
       </c>
       <c r="I73">
-        <v>0.07983943514886356</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.2951328976904644</v>
+      </c>
+      <c r="J73">
+        <v>0.08873928552994498</v>
+      </c>
+      <c r="K73">
+        <v>-0.2673081228964684</v>
+      </c>
+      <c r="L73">
+        <v>0.2644674752594318</v>
+      </c>
+      <c r="M73">
+        <v>-0.1168309370955115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.09316248125473882</v>
+        <v>0.0909476243670424</v>
       </c>
       <c r="C74">
-        <v>-0.03273641606040364</v>
+        <v>0.06893424549053123</v>
       </c>
       <c r="D74">
-        <v>0.01818911423543347</v>
+        <v>0.01247818676015767</v>
       </c>
       <c r="E74">
-        <v>-0.02959633298897021</v>
+        <v>0.009353164122544614</v>
       </c>
       <c r="F74">
-        <v>-0.04255683452939316</v>
+        <v>-0.03898709557416288</v>
       </c>
       <c r="G74">
-        <v>0.1672089431014917</v>
+        <v>-0.1496824074531442</v>
       </c>
       <c r="H74">
-        <v>0.04300402428695271</v>
+        <v>0.02500664588820168</v>
       </c>
       <c r="I74">
-        <v>-0.0109506878699491</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>-0.0006593131801443933</v>
+      </c>
+      <c r="J74">
+        <v>0.04175330481163391</v>
+      </c>
+      <c r="K74">
+        <v>0.01735002276666809</v>
+      </c>
+      <c r="L74">
+        <v>0.03405340151945574</v>
+      </c>
+      <c r="M74">
+        <v>-0.04990956437716828</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.09939485564679859</v>
+        <v>0.09111956733648834</v>
       </c>
       <c r="C75">
-        <v>-0.01724932886913449</v>
+        <v>0.04977065150419457</v>
       </c>
       <c r="D75">
-        <v>0.02321315933548826</v>
+        <v>0.00748151319454705</v>
       </c>
       <c r="E75">
-        <v>-0.0317382421699225</v>
+        <v>0.01044372238350554</v>
       </c>
       <c r="F75">
-        <v>-0.06663411144906256</v>
+        <v>-0.0170973406234328</v>
       </c>
       <c r="G75">
-        <v>0.07694218636746968</v>
+        <v>-0.09743537039091467</v>
       </c>
       <c r="H75">
-        <v>-0.04301406732672278</v>
+        <v>0.02641455459004964</v>
       </c>
       <c r="I75">
-        <v>-0.1162619440864664</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>-0.09409248835452792</v>
+      </c>
+      <c r="J75">
+        <v>-0.001948166529198988</v>
+      </c>
+      <c r="K75">
+        <v>0.04046679557637008</v>
+      </c>
+      <c r="L75">
+        <v>0.03390681806199459</v>
+      </c>
+      <c r="M75">
+        <v>0.05954541115440586</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1295126881054811</v>
+        <v>0.09490597707309165</v>
       </c>
       <c r="C76">
-        <v>-0.0352968526618835</v>
+        <v>0.06732627834907771</v>
       </c>
       <c r="D76">
-        <v>0.01512150394223915</v>
+        <v>0.00260669605009579</v>
       </c>
       <c r="E76">
-        <v>-0.01441183712328884</v>
+        <v>-0.007779405121589181</v>
       </c>
       <c r="F76">
-        <v>-0.1252260767842514</v>
+        <v>-0.05423305894738799</v>
       </c>
       <c r="G76">
-        <v>0.2116516665942929</v>
+        <v>-0.1938626889028484</v>
       </c>
       <c r="H76">
-        <v>-0.008943980002817542</v>
+        <v>0.05642986532962551</v>
       </c>
       <c r="I76">
-        <v>-0.08890574801944114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>-0.09875597021680164</v>
+      </c>
+      <c r="J76">
+        <v>0.01224806322103003</v>
+      </c>
+      <c r="K76">
+        <v>0.06134231369070843</v>
+      </c>
+      <c r="L76">
+        <v>0.04128966443436934</v>
+      </c>
+      <c r="M76">
+        <v>-0.1287098076909083</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.08804958594724463</v>
+        <v>0.07649168781766831</v>
       </c>
       <c r="C77">
-        <v>-0.02732982932183975</v>
+        <v>0.01837488466624283</v>
       </c>
       <c r="D77">
-        <v>-0.0006057623380782384</v>
+        <v>0.004424631098643052</v>
       </c>
       <c r="E77">
-        <v>0.354803431092963</v>
+        <v>-0.04667673542116227</v>
       </c>
       <c r="F77">
-        <v>-0.5991777503047271</v>
+        <v>0.4583661789271292</v>
       </c>
       <c r="G77">
-        <v>-0.5174803266798337</v>
+        <v>0.1675524855254844</v>
       </c>
       <c r="H77">
-        <v>0.02402801914745224</v>
+        <v>-0.6714434164341597</v>
       </c>
       <c r="I77">
-        <v>0.04108820075975739</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>-0.2852471315241619</v>
+      </c>
+      <c r="J77">
+        <v>0.1611537050191016</v>
+      </c>
+      <c r="K77">
+        <v>-0.04063575399955901</v>
+      </c>
+      <c r="L77">
+        <v>0.06970640901029022</v>
+      </c>
+      <c r="M77">
+        <v>-0.1041106938178364</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1357699578014615</v>
+        <v>0.1669536377103955</v>
       </c>
       <c r="C78">
-        <v>-0.103263695769778</v>
+        <v>0.122562602319603</v>
       </c>
       <c r="D78">
-        <v>0.02421578465942366</v>
+        <v>-0.1793225824800934</v>
       </c>
       <c r="E78">
-        <v>0.1485885350713528</v>
+        <v>-0.1053945605473939</v>
       </c>
       <c r="F78">
-        <v>0.06637188517353189</v>
+        <v>0.1250073847138646</v>
       </c>
       <c r="G78">
-        <v>-0.0008891076357264788</v>
+        <v>0.2892133957530761</v>
       </c>
       <c r="H78">
-        <v>-0.0773156495388183</v>
+        <v>0.2577839959290806</v>
       </c>
       <c r="I78">
-        <v>0.07400738157115282</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>-0.4057072261033023</v>
+      </c>
+      <c r="J78">
+        <v>-0.5695499268945559</v>
+      </c>
+      <c r="K78">
+        <v>-0.2092468766861322</v>
+      </c>
+      <c r="L78">
+        <v>0.2422947848317942</v>
+      </c>
+      <c r="M78">
+        <v>-0.0905549000668095</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1427499403075889</v>
+        <v>0.1345290646298093</v>
       </c>
       <c r="C79">
-        <v>-0.05597641384494403</v>
+        <v>0.07382682833347141</v>
       </c>
       <c r="D79">
-        <v>0.02720646363618551</v>
+        <v>0.003904210597346287</v>
       </c>
       <c r="E79">
-        <v>-0.05357417896539805</v>
+        <v>-0.0009237853541990587</v>
       </c>
       <c r="F79">
-        <v>-0.1020463196588829</v>
+        <v>-0.004795220150231657</v>
       </c>
       <c r="G79">
-        <v>0.1239346305714894</v>
+        <v>-0.1533620607779281</v>
       </c>
       <c r="H79">
-        <v>-0.05104386952556289</v>
+        <v>0.03622178719245206</v>
       </c>
       <c r="I79">
-        <v>-0.09486515831741138</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>-0.08705097159422991</v>
+      </c>
+      <c r="J79">
+        <v>0.06014956830703552</v>
+      </c>
+      <c r="K79">
+        <v>0.0812065175856298</v>
+      </c>
+      <c r="L79">
+        <v>0.04315200291342016</v>
+      </c>
+      <c r="M79">
+        <v>-0.01030154361540944</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.02530842916094011</v>
+        <v>0.05443021492331136</v>
       </c>
       <c r="C80">
-        <v>0.003268746470068416</v>
+        <v>0.0220231613361125</v>
       </c>
       <c r="D80">
-        <v>0.006329511458308498</v>
+        <v>0.06190826427274486</v>
       </c>
       <c r="E80">
-        <v>-0.03015724221703008</v>
+        <v>-0.008280134220884954</v>
       </c>
       <c r="F80">
-        <v>0.00406943988000618</v>
+        <v>0.008739229333060511</v>
       </c>
       <c r="G80">
-        <v>-0.0005414320224335508</v>
+        <v>0.02142842741051443</v>
       </c>
       <c r="H80">
-        <v>0.08882614324597746</v>
+        <v>0.08931673420666915</v>
       </c>
       <c r="I80">
-        <v>0.01861605932119296</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.1259050058467171</v>
+      </c>
+      <c r="J80">
+        <v>-0.05476171653230103</v>
+      </c>
+      <c r="K80">
+        <v>0.01571909451752499</v>
+      </c>
+      <c r="L80">
+        <v>-0.08182208742004675</v>
+      </c>
+      <c r="M80">
+        <v>-0.02162250290748173</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.1135891626568849</v>
+        <v>0.1197482525437757</v>
       </c>
       <c r="C81">
-        <v>-0.05110766849938029</v>
+        <v>0.05142972448161167</v>
       </c>
       <c r="D81">
-        <v>0.0345049455373805</v>
+        <v>0.001213620971673601</v>
       </c>
       <c r="E81">
-        <v>-0.04330674787310702</v>
+        <v>-0.004113820778890013</v>
       </c>
       <c r="F81">
-        <v>-0.05533001082746522</v>
+        <v>0.01247429543966279</v>
       </c>
       <c r="G81">
-        <v>0.07982370142246846</v>
+        <v>-0.1335888149886313</v>
       </c>
       <c r="H81">
-        <v>-0.01461066639389447</v>
+        <v>0.0623917540199151</v>
       </c>
       <c r="I81">
-        <v>-0.03903494682793031</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>-0.07062407172209799</v>
+      </c>
+      <c r="J81">
+        <v>0.04272347324588634</v>
+      </c>
+      <c r="K81">
+        <v>0.006006966295415936</v>
+      </c>
+      <c r="L81">
+        <v>0.02735871666669257</v>
+      </c>
+      <c r="M81">
+        <v>0.05415091848131218</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1104135945459545</v>
+        <v>0.1192761608593497</v>
       </c>
       <c r="C82">
-        <v>-0.03264320424337294</v>
+        <v>0.0517765078501688</v>
       </c>
       <c r="D82">
-        <v>0.06206221796632852</v>
+        <v>0.02734558033334151</v>
       </c>
       <c r="E82">
-        <v>-0.09548733359230871</v>
+        <v>0.005245983887254902</v>
       </c>
       <c r="F82">
-        <v>-0.1537466006004192</v>
+        <v>-0.04247082827105071</v>
       </c>
       <c r="G82">
-        <v>0.2075008064157655</v>
+        <v>-0.228728002350728</v>
       </c>
       <c r="H82">
-        <v>-0.06282657028261873</v>
+        <v>0.06020584643809205</v>
       </c>
       <c r="I82">
-        <v>-0.06389598159517805</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>-0.1056475061933112</v>
+      </c>
+      <c r="J82">
+        <v>0.07485174706557131</v>
+      </c>
+      <c r="K82">
+        <v>0.02232893966645504</v>
+      </c>
+      <c r="L82">
+        <v>-0.05133651205575063</v>
+      </c>
+      <c r="M82">
+        <v>-0.02016079733958153</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.05828244861289027</v>
+        <v>0.07538999404357835</v>
       </c>
       <c r="C83">
-        <v>-0.0386869384345704</v>
+        <v>0.06297274727140385</v>
       </c>
       <c r="D83">
-        <v>0.03171365951018267</v>
+        <v>0.01190656998833781</v>
       </c>
       <c r="E83">
-        <v>-0.01907537249013133</v>
+        <v>-0.0008284059950084601</v>
       </c>
       <c r="F83">
-        <v>0.02875809893483068</v>
+        <v>-0.00601068102448615</v>
       </c>
       <c r="G83">
-        <v>-0.08435634068847128</v>
+        <v>-0.03463420780671782</v>
       </c>
       <c r="H83">
-        <v>-0.07796933715554318</v>
+        <v>-0.04690545736925238</v>
       </c>
       <c r="I83">
-        <v>0.028813450583393</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.03908011550671969</v>
+      </c>
+      <c r="J83">
+        <v>-0.02414180424362612</v>
+      </c>
+      <c r="K83">
+        <v>-0.01903261804652905</v>
+      </c>
+      <c r="L83">
+        <v>-0.1502782322150713</v>
+      </c>
+      <c r="M83">
+        <v>0.04561907956243985</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.04729103349296748</v>
+        <v>0.04752132917972219</v>
       </c>
       <c r="C84">
-        <v>-0.03591871572435065</v>
+        <v>-0.02026077133055093</v>
       </c>
       <c r="D84">
-        <v>-0.04560835830448016</v>
+        <v>0.006998757251268178</v>
       </c>
       <c r="E84">
-        <v>-0.021234615109426</v>
+        <v>0.02240595389410362</v>
       </c>
       <c r="F84">
-        <v>0.08682316030795824</v>
+        <v>-0.0001514441518396223</v>
       </c>
       <c r="G84">
-        <v>0.08545746416694214</v>
+        <v>0.21436206252314</v>
       </c>
       <c r="H84">
-        <v>-0.008818128907623178</v>
+        <v>0.175925421498252</v>
       </c>
       <c r="I84">
-        <v>0.03656904552319912</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.0756578570191816</v>
+      </c>
+      <c r="J84">
+        <v>0.08546327457340014</v>
+      </c>
+      <c r="K84">
+        <v>-0.1172700527554962</v>
+      </c>
+      <c r="L84">
+        <v>-0.1861943668710979</v>
+      </c>
+      <c r="M84">
+        <v>-0.5809478176008291</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.08124349073186249</v>
+        <v>0.1083508586104843</v>
       </c>
       <c r="C85">
-        <v>-0.0442062864695885</v>
+        <v>0.05205363627435137</v>
       </c>
       <c r="D85">
-        <v>0.05073634193225646</v>
+        <v>0.01300235221394928</v>
       </c>
       <c r="E85">
-        <v>-0.02189205326011633</v>
+        <v>-0.03035910063148569</v>
       </c>
       <c r="F85">
-        <v>-0.1225155895308884</v>
+        <v>0.001193349975078302</v>
       </c>
       <c r="G85">
-        <v>0.149565268039043</v>
+        <v>-0.160940224377983</v>
       </c>
       <c r="H85">
-        <v>0.005033993804449035</v>
+        <v>0.04801674493701005</v>
       </c>
       <c r="I85">
-        <v>-0.05574195420243749</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>-0.07680254277788055</v>
+      </c>
+      <c r="J85">
+        <v>0.05787629193546942</v>
+      </c>
+      <c r="K85">
+        <v>0.07220420032534552</v>
+      </c>
+      <c r="L85">
+        <v>0.06546862621778389</v>
+      </c>
+      <c r="M85">
+        <v>-0.00223729949917291</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.03285112952366723</v>
+        <v>0.07187424223164626</v>
       </c>
       <c r="C86">
-        <v>-0.04559469990920288</v>
+        <v>0.02123644688185381</v>
       </c>
       <c r="D86">
-        <v>-0.01351140401998659</v>
+        <v>-0.009591362304755506</v>
       </c>
       <c r="E86">
-        <v>0.02947607283282241</v>
+        <v>-0.09317657360053583</v>
       </c>
       <c r="F86">
-        <v>-0.0008360591803701721</v>
+        <v>0.04082773756891714</v>
       </c>
       <c r="G86">
-        <v>-0.06280493877341993</v>
+        <v>0.4286262131072292</v>
       </c>
       <c r="H86">
-        <v>0.1212959967068805</v>
+        <v>0.413136065694202</v>
       </c>
       <c r="I86">
-        <v>-0.04215368452399884</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>-0.1705908655515231</v>
+      </c>
+      <c r="J86">
+        <v>0.5956756340728966</v>
+      </c>
+      <c r="K86">
+        <v>-0.007225149214151159</v>
+      </c>
+      <c r="L86">
+        <v>0.1382371706828124</v>
+      </c>
+      <c r="M86">
+        <v>0.02846267091679574</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.09151640956036011</v>
+        <v>0.1135370996792172</v>
       </c>
       <c r="C87">
-        <v>-0.07176854015626169</v>
+        <v>0.06721168755360779</v>
       </c>
       <c r="D87">
-        <v>0.009003117052361672</v>
+        <v>-0.03648032789837746</v>
       </c>
       <c r="E87">
-        <v>0.1445664007372263</v>
+        <v>-0.03045010025794008</v>
       </c>
       <c r="F87">
-        <v>-0.1146669075325744</v>
+        <v>0.1577691529818834</v>
       </c>
       <c r="G87">
-        <v>-0.1014643448563686</v>
+        <v>0.08860600776349406</v>
       </c>
       <c r="H87">
-        <v>-0.02557027238687191</v>
+        <v>-0.1623114040006546</v>
       </c>
       <c r="I87">
-        <v>0.07404579983683825</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>-0.003944814233903406</v>
+      </c>
+      <c r="J87">
+        <v>0.06553000816417731</v>
+      </c>
+      <c r="K87">
+        <v>-0.009893180111855748</v>
+      </c>
+      <c r="L87">
+        <v>-0.1321079679408757</v>
+      </c>
+      <c r="M87">
+        <v>-0.05430620156615949</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.04842774890947679</v>
+        <v>0.05635044426371885</v>
       </c>
       <c r="C88">
-        <v>-0.04033360553585658</v>
+        <v>0.05246168246488646</v>
       </c>
       <c r="D88">
-        <v>0.02427350120198892</v>
+        <v>0.02761275112402763</v>
       </c>
       <c r="E88">
-        <v>0.00429424268307035</v>
+        <v>-0.01299972924117915</v>
       </c>
       <c r="F88">
-        <v>-0.003967744626326641</v>
+        <v>0.03159454422231151</v>
       </c>
       <c r="G88">
-        <v>-0.0174962514993088</v>
+        <v>-0.03395467762521406</v>
       </c>
       <c r="H88">
-        <v>-0.002402770710302052</v>
+        <v>0.0202376313902143</v>
       </c>
       <c r="I88">
-        <v>0.0444300478168239</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.04287713837422504</v>
+      </c>
+      <c r="J88">
+        <v>0.007829011945990333</v>
+      </c>
+      <c r="K88">
+        <v>-0.02540272766275939</v>
+      </c>
+      <c r="L88">
+        <v>-0.02528511547380415</v>
+      </c>
+      <c r="M88">
+        <v>0.02602079332131541</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1812958773697674</v>
+        <v>0.2150735387075324</v>
       </c>
       <c r="C89">
-        <v>0.3145881927161925</v>
+        <v>-0.3572477954563548</v>
       </c>
       <c r="D89">
-        <v>0.06354619794224978</v>
+        <v>-0.04913703972046568</v>
       </c>
       <c r="E89">
-        <v>0.09608839767549965</v>
+        <v>-0.07957248119112981</v>
       </c>
       <c r="F89">
-        <v>0.03808828026834348</v>
+        <v>0.01132440803986031</v>
       </c>
       <c r="G89">
-        <v>-0.006684487850718681</v>
+        <v>-0.01035985520306209</v>
       </c>
       <c r="H89">
-        <v>-0.01382348945692042</v>
+        <v>0.03332062711869804</v>
       </c>
       <c r="I89">
-        <v>-0.00336149435903022</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.02065311956631131</v>
+      </c>
+      <c r="J89">
+        <v>-0.02467149038966788</v>
+      </c>
+      <c r="K89">
+        <v>-0.07574992786528031</v>
+      </c>
+      <c r="L89">
+        <v>-0.01790248444034608</v>
+      </c>
+      <c r="M89">
+        <v>0.1068267765041286</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1320967677395673</v>
+        <v>0.1492811202584325</v>
       </c>
       <c r="C90">
-        <v>0.2704248530486845</v>
+        <v>-0.2696624244764498</v>
       </c>
       <c r="D90">
-        <v>-0.001883553991132764</v>
+        <v>0.006786470020913529</v>
       </c>
       <c r="E90">
-        <v>0.06076612795823126</v>
+        <v>-0.02029011999874597</v>
       </c>
       <c r="F90">
-        <v>0.0008985491039570887</v>
+        <v>0.03066944393802054</v>
       </c>
       <c r="G90">
-        <v>-0.04089434757333534</v>
+        <v>0.001990954541706048</v>
       </c>
       <c r="H90">
-        <v>0.009924033727366612</v>
+        <v>-0.022008860764793</v>
       </c>
       <c r="I90">
-        <v>0.1251714311035752</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.06360396153815304</v>
+      </c>
+      <c r="J90">
+        <v>-0.001613357840572648</v>
+      </c>
+      <c r="K90">
+        <v>-0.03002976388027741</v>
+      </c>
+      <c r="L90">
+        <v>3.330370948603755e-05</v>
+      </c>
+      <c r="M90">
+        <v>-0.03737099563995239</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.08020397253860391</v>
+        <v>0.07797654989820729</v>
       </c>
       <c r="C91">
-        <v>-0.02648253451826372</v>
+        <v>0.04946243791436099</v>
       </c>
       <c r="D91">
-        <v>0.008175325683071806</v>
+        <v>-0.00923646860234364</v>
       </c>
       <c r="E91">
-        <v>0.01051399876626602</v>
+        <v>-0.007702265291681021</v>
       </c>
       <c r="F91">
-        <v>-0.0372740370777165</v>
+        <v>-0.01944473754570801</v>
       </c>
       <c r="G91">
-        <v>0.1023282655363005</v>
+        <v>-0.08031285971103151</v>
       </c>
       <c r="H91">
-        <v>-0.02339904456877134</v>
+        <v>0.02405021650672479</v>
       </c>
       <c r="I91">
-        <v>-0.05584530760843502</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>-0.06504577327685118</v>
+      </c>
+      <c r="J91">
+        <v>0.01333032079877105</v>
+      </c>
+      <c r="K91">
+        <v>0.001551227363022689</v>
+      </c>
+      <c r="L91">
+        <v>0.03302924769443485</v>
+      </c>
+      <c r="M91">
+        <v>-0.01473582288203666</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.152699193178659</v>
+        <v>0.1638019412537303</v>
       </c>
       <c r="C92">
-        <v>0.2955272952258834</v>
+        <v>-0.3008710738276916</v>
       </c>
       <c r="D92">
-        <v>0.04273088135019706</v>
+        <v>-0.03452914218981729</v>
       </c>
       <c r="E92">
-        <v>0.03252111637958913</v>
+        <v>-0.04382149763380995</v>
       </c>
       <c r="F92">
-        <v>0.0751176349939815</v>
+        <v>0.01778136978985526</v>
       </c>
       <c r="G92">
-        <v>0.03513312094177298</v>
+        <v>-0.03379899396982128</v>
       </c>
       <c r="H92">
-        <v>-0.006892769876330685</v>
+        <v>0.02137362009207375</v>
       </c>
       <c r="I92">
-        <v>-0.001678782521200588</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.0196575612557435</v>
+      </c>
+      <c r="J92">
+        <v>-0.03641317852857531</v>
+      </c>
+      <c r="K92">
+        <v>-0.0187741829331992</v>
+      </c>
+      <c r="L92">
+        <v>0.001070228071235426</v>
+      </c>
+      <c r="M92">
+        <v>0.05429199795189501</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1444563539624792</v>
+        <v>0.1627143200242168</v>
       </c>
       <c r="C93">
-        <v>0.2445299197109158</v>
+        <v>-0.2879155309647414</v>
       </c>
       <c r="D93">
-        <v>0.01674569466548116</v>
+        <v>0.02528444885537176</v>
       </c>
       <c r="E93">
-        <v>0.02870209583612316</v>
+        <v>-0.01161357666074101</v>
       </c>
       <c r="F93">
-        <v>0.0289156104669256</v>
+        <v>0.009399795910160399</v>
       </c>
       <c r="G93">
-        <v>-0.02837588911610811</v>
+        <v>0.01175985008656209</v>
       </c>
       <c r="H93">
-        <v>0.001806048702434567</v>
+        <v>0.02146979297296125</v>
       </c>
       <c r="I93">
-        <v>0.03321468873325126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.0247858129193236</v>
+      </c>
+      <c r="J93">
+        <v>0.02919684244592223</v>
+      </c>
+      <c r="K93">
+        <v>0.007027620781820188</v>
+      </c>
+      <c r="L93">
+        <v>-0.02395707450271723</v>
+      </c>
+      <c r="M93">
+        <v>-0.01888198340901875</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.08573220863183284</v>
+        <v>0.1057676219162264</v>
       </c>
       <c r="C94">
-        <v>-0.05807436559535239</v>
+        <v>0.0755535082738087</v>
       </c>
       <c r="D94">
-        <v>0.011978160980212</v>
+        <v>-0.01438221427671931</v>
       </c>
       <c r="E94">
-        <v>-0.01034325649518812</v>
+        <v>-0.01446824125919582</v>
       </c>
       <c r="F94">
-        <v>-0.05896472016005224</v>
+        <v>-0.03229049443454648</v>
       </c>
       <c r="G94">
-        <v>0.1367582763494824</v>
+        <v>-0.1163246155977289</v>
       </c>
       <c r="H94">
-        <v>-0.02742341283892447</v>
+        <v>0.04797142051438588</v>
       </c>
       <c r="I94">
-        <v>-0.1331195513762771</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>-0.04966657102973512</v>
+      </c>
+      <c r="J94">
+        <v>-0.01241957246127473</v>
+      </c>
+      <c r="K94">
+        <v>0.03039144484284834</v>
+      </c>
+      <c r="L94">
+        <v>0.05309152483257042</v>
+      </c>
+      <c r="M94">
+        <v>0.03148601751105184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.101879165289607</v>
+        <v>0.1282600124504326</v>
       </c>
       <c r="C95">
-        <v>-0.08284198574395506</v>
+        <v>0.06857134670470902</v>
       </c>
       <c r="D95">
-        <v>0.08165448365193939</v>
+        <v>-0.02376118621015196</v>
       </c>
       <c r="E95">
-        <v>0.01583301587784741</v>
+        <v>-0.06182650464942333</v>
       </c>
       <c r="F95">
-        <v>0.06222802760923853</v>
+        <v>0.06975174555730812</v>
       </c>
       <c r="G95">
-        <v>0.00789313069548408</v>
+        <v>0.181740715998421</v>
       </c>
       <c r="H95">
-        <v>0.02594877956095633</v>
+        <v>0.09259124877889235</v>
       </c>
       <c r="I95">
-        <v>0.02305067969748046</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.1712736450537062</v>
+      </c>
+      <c r="J95">
+        <v>0.107903515996822</v>
+      </c>
+      <c r="K95">
+        <v>0.03091666802411226</v>
+      </c>
+      <c r="L95">
+        <v>-0.0155180453774642</v>
+      </c>
+      <c r="M95">
+        <v>0.3455162272378055</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3490,97 +4642,145 @@
       <c r="I96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.2756090772567055</v>
+        <v>0.163767198510378</v>
       </c>
       <c r="C97">
-        <v>-0.04736661873502399</v>
+        <v>-0.0008147352594444337</v>
       </c>
       <c r="D97">
-        <v>-0.8720015916930222</v>
+        <v>-0.09316656222019522</v>
       </c>
       <c r="E97">
-        <v>-0.1649062388284223</v>
+        <v>0.9349897265909198</v>
       </c>
       <c r="F97">
-        <v>0.05592852975800434</v>
+        <v>0.008650128234017042</v>
       </c>
       <c r="G97">
-        <v>-0.09578395757165625</v>
+        <v>0.1170208749774779</v>
       </c>
       <c r="H97">
-        <v>0.04812182018270017</v>
+        <v>0.0206414813906</v>
       </c>
       <c r="I97">
-        <v>0.02551305745740912</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.005971931002799662</v>
+      </c>
+      <c r="J97">
+        <v>0.01233539666655323</v>
+      </c>
+      <c r="K97">
+        <v>-0.06757997572916592</v>
+      </c>
+      <c r="L97">
+        <v>0.02181233477274649</v>
+      </c>
+      <c r="M97">
+        <v>0.04060631808564383</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.2677772885262408</v>
+        <v>0.2643770647250903</v>
       </c>
       <c r="C98">
-        <v>-0.09035098303178916</v>
+        <v>0.1170375101042954</v>
       </c>
       <c r="D98">
-        <v>0.1726170682603128</v>
+        <v>0.01427093701983999</v>
       </c>
       <c r="E98">
-        <v>-0.2876243610832522</v>
+        <v>-0.02845557777008447</v>
       </c>
       <c r="F98">
-        <v>0.4117485755168167</v>
+        <v>-0.4176368917535178</v>
       </c>
       <c r="G98">
-        <v>-0.3328732241664171</v>
+        <v>0.2384371868905867</v>
       </c>
       <c r="H98">
-        <v>-0.3173356505461277</v>
+        <v>-0.1700823884054268</v>
       </c>
       <c r="I98">
-        <v>0.009872317684879476</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>-0.241193899777272</v>
+      </c>
+      <c r="J98">
+        <v>-0.1818379230694763</v>
+      </c>
+      <c r="K98">
+        <v>0.08663321776819558</v>
+      </c>
+      <c r="L98">
+        <v>-0.5821062529930479</v>
+      </c>
+      <c r="M98">
+        <v>0.02240311684692876</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.04420173704431971</v>
+        <v>0.06510209243297756</v>
       </c>
       <c r="C99">
-        <v>-0.02059800167936745</v>
+        <v>0.04417116426198737</v>
       </c>
       <c r="D99">
-        <v>0.01595510595617787</v>
+        <v>-0.01597922240187244</v>
       </c>
       <c r="E99">
-        <v>-0.03964510372649709</v>
+        <v>-0.02700107142249745</v>
       </c>
       <c r="F99">
-        <v>-0.09361696853528863</v>
+        <v>-0.01664251149150374</v>
       </c>
       <c r="G99">
-        <v>-0.2290909218547623</v>
+        <v>-0.02316666360434236</v>
       </c>
       <c r="H99">
-        <v>-0.4553778726813263</v>
+        <v>-0.05335106551520373</v>
       </c>
       <c r="I99">
-        <v>-0.6643451668987239</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>-0.2364316978063334</v>
+      </c>
+      <c r="J99">
+        <v>0.09494576176784238</v>
+      </c>
+      <c r="K99">
+        <v>-0.06123052930356988</v>
+      </c>
+      <c r="L99">
+        <v>0.006759559174741625</v>
+      </c>
+      <c r="M99">
+        <v>0.4603431750850087</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3606,39 +4806,63 @@
       <c r="I100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.04897558854282048</v>
+        <v>0.0449733961925733</v>
       </c>
       <c r="C101">
-        <v>-0.01668487947304318</v>
+        <v>0.02310928880060613</v>
       </c>
       <c r="D101">
-        <v>0.01154772933638298</v>
+        <v>-0.002947975519940955</v>
       </c>
       <c r="E101">
-        <v>0.02104177206658018</v>
+        <v>-0.02047237056149075</v>
       </c>
       <c r="F101">
-        <v>0.008271191351362289</v>
+        <v>0.04504482440199956</v>
       </c>
       <c r="G101">
-        <v>0.01709704868613345</v>
+        <v>-0.03599226428189402</v>
       </c>
       <c r="H101">
-        <v>0.03633506539289648</v>
+        <v>0.05309280808713377</v>
       </c>
       <c r="I101">
-        <v>0.008748594456359018</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.02065229722501531</v>
+      </c>
+      <c r="J101">
+        <v>0.01859040909755439</v>
+      </c>
+      <c r="K101">
+        <v>0.03589966983756063</v>
+      </c>
+      <c r="L101">
+        <v>-0.03843377767057342</v>
+      </c>
+      <c r="M101">
+        <v>-0.03301745919430523</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3664,10 +4888,22 @@
       <c r="I102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3693,10 +4929,22 @@
       <c r="I103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3720,6 +4968,18 @@
         <v>0</v>
       </c>
       <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
